--- a/study_notes_Pluralsight.xlsx
+++ b/study_notes_Pluralsight.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10810"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C5DA05AF-392D-7243-B439-55F446DBE4DF}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F0AD176B-6562-B64E-88F9-9D48E595A89A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="6440" yWindow="2100" windowWidth="25800" windowHeight="16840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1179,7 +1179,7 @@
   <dimension ref="A2:H178"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A150" zoomScale="118" zoomScaleNormal="110" zoomScalePageLayoutView="85" workbookViewId="0">
-      <selection activeCell="E168" sqref="E168"/>
+      <selection activeCell="E169" sqref="E169"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -2102,8 +2102,8 @@
       <c r="D167" t="s">
         <v>221</v>
       </c>
-      <c r="E167" s="2" t="s">
-        <v>15</v>
+      <c r="E167" s="1" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="168" spans="4:5" x14ac:dyDescent="0.2">

--- a/study_notes_Pluralsight.xlsx
+++ b/study_notes_Pluralsight.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10810"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F0AD176B-6562-B64E-88F9-9D48E595A89A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FA5E8E3A-D8FC-1849-8E3C-872701A57027}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="6440" yWindow="2100" windowWidth="25800" windowHeight="16840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="6440" yWindow="2100" windowWidth="25800" windowHeight="16840" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Frontend Dev" sheetId="1" r:id="rId1"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="471" uniqueCount="244">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="474" uniqueCount="245">
   <si>
     <t>Path:</t>
   </si>
@@ -762,6 +762,9 @@
   </si>
   <si>
     <t>(1) Visual Composition and Layouts</t>
+  </si>
+  <si>
+    <t>AngularJS Forms Using Bootstrap and MVC 5</t>
   </si>
 </sst>
 </file>
@@ -1178,7 +1181,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A2:H178"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A150" zoomScale="118" zoomScaleNormal="110" zoomScalePageLayoutView="85" workbookViewId="0">
+    <sheetView topLeftCell="A152" zoomScale="118" zoomScaleNormal="110" zoomScalePageLayoutView="85" workbookViewId="0">
       <selection activeCell="E169" sqref="E169"/>
     </sheetView>
   </sheetViews>
@@ -2939,8 +2942,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9D1D9DD3-45DB-954C-B749-4F3B65D055A7}">
   <dimension ref="A2:F60"/>
   <sheetViews>
-    <sheetView topLeftCell="A38" zoomScale="109" workbookViewId="0">
-      <selection activeCell="G32" sqref="G32"/>
+    <sheetView tabSelected="1" zoomScale="109" workbookViewId="0">
+      <selection activeCell="G13" sqref="G13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -3015,6 +3018,17 @@
     <row r="13" spans="1:5" x14ac:dyDescent="0.2">
       <c r="D13" t="s">
         <v>200</v>
+      </c>
+      <c r="E13" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="D14" t="s">
+        <v>244</v>
+      </c>
+      <c r="E14" s="2" t="s">
+        <v>15</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.2">

--- a/study_notes_Pluralsight.xlsx
+++ b/study_notes_Pluralsight.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10810"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10913"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FA5E8E3A-D8FC-1849-8E3C-872701A57027}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8D925ABC-0CFB-FD44-B4ED-5573831447BC}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="6440" yWindow="2100" windowWidth="25800" windowHeight="16840" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="6440" yWindow="2100" windowWidth="25800" windowHeight="16840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Frontend Dev" sheetId="1" r:id="rId1"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="474" uniqueCount="245">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="475" uniqueCount="245">
   <si>
     <t>Path:</t>
   </si>
@@ -1181,8 +1181,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A2:H178"/>
   <sheetViews>
-    <sheetView topLeftCell="A152" zoomScale="118" zoomScaleNormal="110" zoomScalePageLayoutView="85" workbookViewId="0">
-      <selection activeCell="E169" sqref="E169"/>
+    <sheetView tabSelected="1" topLeftCell="A152" zoomScale="118" zoomScaleNormal="110" zoomScalePageLayoutView="85" workbookViewId="0">
+      <selection activeCell="E173" sqref="E173"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -2092,6 +2092,9 @@
       <c r="D165" t="s">
         <v>219</v>
       </c>
+      <c r="E165" s="2" t="s">
+        <v>15</v>
+      </c>
     </row>
     <row r="166" spans="4:5" x14ac:dyDescent="0.2">
       <c r="D166" t="s">
@@ -2123,8 +2126,8 @@
       <c r="D170" t="s">
         <v>224</v>
       </c>
-      <c r="E170" s="2" t="s">
-        <v>15</v>
+      <c r="E170" s="1" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="171" spans="4:5" x14ac:dyDescent="0.2">
@@ -2942,7 +2945,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9D1D9DD3-45DB-954C-B749-4F3B65D055A7}">
   <dimension ref="A2:F60"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="109" workbookViewId="0">
+    <sheetView zoomScale="109" workbookViewId="0">
       <selection activeCell="G13" sqref="G13"/>
     </sheetView>
   </sheetViews>

--- a/study_notes_Pluralsight.xlsx
+++ b/study_notes_Pluralsight.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10913"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8D925ABC-0CFB-FD44-B4ED-5573831447BC}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FB04062E-7684-3B49-BBA1-FC1DC604846C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="6440" yWindow="2100" windowWidth="25800" windowHeight="16840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1182,7 +1182,7 @@
   <dimension ref="A2:H178"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A152" zoomScale="118" zoomScaleNormal="110" zoomScalePageLayoutView="85" workbookViewId="0">
-      <selection activeCell="E173" sqref="E173"/>
+      <selection activeCell="E168" sqref="E168"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -2092,8 +2092,8 @@
       <c r="D165" t="s">
         <v>219</v>
       </c>
-      <c r="E165" s="2" t="s">
-        <v>15</v>
+      <c r="E165" s="1" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="166" spans="4:5" x14ac:dyDescent="0.2">

--- a/study_notes_Pluralsight.xlsx
+++ b/study_notes_Pluralsight.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10913"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FB04062E-7684-3B49-BBA1-FC1DC604846C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{52F5CF77-8E32-584F-BE5B-29B5DC6E6D35}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="6440" yWindow="2100" windowWidth="25800" windowHeight="16840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="6440" yWindow="2100" windowWidth="25800" windowHeight="16840" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Frontend Dev" sheetId="1" r:id="rId1"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="475" uniqueCount="245">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="500" uniqueCount="263">
   <si>
     <t>Path:</t>
   </si>
@@ -617,9 +617,6 @@
     <t>Unit Testing RxJS with Marble Diagrams</t>
   </si>
   <si>
-    <t>Play by Play: Angular 2/RxJS/HTTP and RESTful Services with John Papa and Dan Wahlin</t>
-  </si>
-  <si>
     <t>RxJS in Angular: Reactive Development</t>
   </si>
   <si>
@@ -765,6 +762,65 @@
   </si>
   <si>
     <t>AngularJS Forms Using Bootstrap and MVC 5</t>
+  </si>
+  <si>
+    <t>10. Styling the Web with Bootstrap</t>
+  </si>
+  <si>
+    <t>(1) Bootstrap: Getting Started</t>
+  </si>
+  <si>
+    <t>(2) Creating a Responsive Layout with Bootstrap Grid</t>
+  </si>
+  <si>
+    <t>(3) Creating Interactivity with JavaScript Based Bootstrap Components</t>
+  </si>
+  <si>
+    <t>10. Bootstrap</t>
+  </si>
+  <si>
+    <t>Introduction to Bootstrap</t>
+  </si>
+  <si>
+    <t>Outdated</t>
+  </si>
+  <si>
+    <t>Bootstrap 3</t>
+  </si>
+  <si>
+    <t>Responsive Websites With Bootstrap 3</t>
+  </si>
+  <si>
+    <t>Bootstrap 4 for the Developer</t>
+  </si>
+  <si>
+    <t>ng-bootstrap Playbook</t>
+  </si>
+  <si>
+    <t>jQuery Forms and Bootstrap 3</t>
+  </si>
+  <si>
+    <t>Web Layouts with Flexbox and Bootstrap 4</t>
+  </si>
+  <si>
+    <t>Creating a Site with CSS Grid and Bootstrap 4</t>
+  </si>
+  <si>
+    <t>Extending Bootstrap with CSS, JavaScript, and jQuery</t>
+  </si>
+  <si>
+    <t>Building a WordPress Theme Framework with Bootstrap 3</t>
+  </si>
+  <si>
+    <t>Build Your Own Bootstrap Business Application Template in MVC</t>
+  </si>
+  <si>
+    <t>Building a Web App with ASP.NET Core, MVC, Entity 
+Framework Core, Bootstrap, and Angular</t>
+  </si>
+  <si>
+    <t>Play by Play: Angular 2/RxJS/HTTP and RESTful Services 
+with John Papa and Dan Wahlin</t>
   </si>
 </sst>
 </file>
@@ -800,7 +856,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="6">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -831,6 +887,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="2" tint="-0.249977111117893"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -844,7 +906,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -864,6 +926,9 @@
     <xf numFmtId="0" fontId="2" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1179,10 +1244,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A2:H178"/>
+  <dimension ref="A2:H184"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A152" zoomScale="118" zoomScaleNormal="110" zoomScalePageLayoutView="85" workbookViewId="0">
-      <selection activeCell="E168" sqref="E168"/>
+    <sheetView topLeftCell="A158" zoomScale="118" zoomScaleNormal="110" zoomScalePageLayoutView="85" workbookViewId="0">
+      <selection activeCell="G183" sqref="G183"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -2053,7 +2118,7 @@
     <row r="160" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B160" s="4"/>
       <c r="C160" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
     </row>
     <row r="161" spans="4:5" x14ac:dyDescent="0.2">
@@ -2066,7 +2131,7 @@
     </row>
     <row r="162" spans="4:5" x14ac:dyDescent="0.2">
       <c r="D162" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="E162" s="1" t="s">
         <v>14</v>
@@ -2074,7 +2139,7 @@
     </row>
     <row r="163" spans="4:5" ht="16" x14ac:dyDescent="0.2">
       <c r="D163" s="7" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="E163" s="1" t="s">
         <v>14</v>
@@ -2082,7 +2147,7 @@
     </row>
     <row r="164" spans="4:5" x14ac:dyDescent="0.2">
       <c r="D164" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="E164" s="1" t="s">
         <v>14</v>
@@ -2090,7 +2155,7 @@
     </row>
     <row r="165" spans="4:5" x14ac:dyDescent="0.2">
       <c r="D165" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="E165" s="1" t="s">
         <v>14</v>
@@ -2098,7 +2163,7 @@
     </row>
     <row r="166" spans="4:5" x14ac:dyDescent="0.2">
       <c r="D166" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="E166" s="1" t="s">
         <v>14</v>
@@ -2106,7 +2171,7 @@
     </row>
     <row r="167" spans="4:5" x14ac:dyDescent="0.2">
       <c r="D167" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="E167" s="1" t="s">
         <v>14</v>
@@ -2114,17 +2179,17 @@
     </row>
     <row r="168" spans="4:5" x14ac:dyDescent="0.2">
       <c r="D168" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
     </row>
     <row r="169" spans="4:5" x14ac:dyDescent="0.2">
       <c r="D169" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
     </row>
     <row r="170" spans="4:5" x14ac:dyDescent="0.2">
       <c r="D170" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="E170" s="1" t="s">
         <v>14</v>
@@ -2132,7 +2197,7 @@
     </row>
     <row r="171" spans="4:5" x14ac:dyDescent="0.2">
       <c r="D171" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="E171" s="2" t="s">
         <v>15</v>
@@ -2140,37 +2205,66 @@
     </row>
     <row r="172" spans="4:5" x14ac:dyDescent="0.2">
       <c r="D172" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
     </row>
     <row r="173" spans="4:5" x14ac:dyDescent="0.2">
       <c r="D173" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
     </row>
     <row r="174" spans="4:5" x14ac:dyDescent="0.2">
       <c r="D174" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
     </row>
     <row r="175" spans="4:5" x14ac:dyDescent="0.2">
       <c r="D175" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
     </row>
     <row r="176" spans="4:5" x14ac:dyDescent="0.2">
       <c r="D176" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="177" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="D177" t="s">
         <v>230</v>
       </c>
     </row>
-    <row r="177" spans="4:4" x14ac:dyDescent="0.2">
-      <c r="D177" t="s">
+    <row r="178" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="D178" t="s">
         <v>231</v>
       </c>
     </row>
-    <row r="178" spans="4:4" x14ac:dyDescent="0.2">
-      <c r="D178" t="s">
-        <v>232</v>
+    <row r="181" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="C181" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="182" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="D182" t="s">
+        <v>245</v>
+      </c>
+      <c r="E182" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="183" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="D183" t="s">
+        <v>246</v>
+      </c>
+      <c r="E183" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="184" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="D184" t="s">
+        <v>247</v>
+      </c>
+      <c r="E184" s="2" t="s">
+        <v>15</v>
       </c>
     </row>
   </sheetData>
@@ -2183,7 +2277,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{568DD5E0-8812-F745-B0FF-3B6970B39263}">
   <dimension ref="A2:F87"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="A8" workbookViewId="0">
       <selection activeCell="J17" sqref="J17"/>
     </sheetView>
   </sheetViews>
@@ -2564,7 +2658,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{076B4C54-1F2D-3F42-8204-6CD64AE9583C}">
   <dimension ref="A2:F87"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="A51" workbookViewId="0">
       <selection activeCell="F1" sqref="F1:F1048576"/>
     </sheetView>
   </sheetViews>
@@ -2585,7 +2679,7 @@
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B3" s="4" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.2">
@@ -2943,10 +3037,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9D1D9DD3-45DB-954C-B749-4F3B65D055A7}">
-  <dimension ref="A2:F60"/>
+  <dimension ref="A2:F75"/>
   <sheetViews>
-    <sheetView zoomScale="109" workbookViewId="0">
-      <selection activeCell="G13" sqref="G13"/>
+    <sheetView tabSelected="1" topLeftCell="A49" zoomScale="109" workbookViewId="0">
+      <selection activeCell="K65" sqref="K65"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -2954,7 +3048,7 @@
     <col min="1" max="1" width="6.1640625" customWidth="1"/>
     <col min="2" max="2" width="14.6640625" customWidth="1"/>
     <col min="3" max="3" width="12.33203125" customWidth="1"/>
-    <col min="4" max="4" width="49" customWidth="1"/>
+    <col min="4" max="4" width="50.33203125" customWidth="1"/>
     <col min="5" max="5" width="17.5" customWidth="1"/>
     <col min="6" max="6" width="7.5" style="6" customWidth="1"/>
   </cols>
@@ -3020,7 +3114,7 @@
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.2">
       <c r="D13" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="E13" s="2" t="s">
         <v>15</v>
@@ -3028,7 +3122,7 @@
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.2">
       <c r="D14" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="E14" s="2" t="s">
         <v>15</v>
@@ -3192,7 +3286,7 @@
     </row>
     <row r="50" spans="3:5" x14ac:dyDescent="0.2">
       <c r="D50" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
     </row>
     <row r="51" spans="3:5" x14ac:dyDescent="0.2">
@@ -3205,19 +3299,19 @@
         <v>194</v>
       </c>
     </row>
-    <row r="53" spans="3:5" x14ac:dyDescent="0.2">
-      <c r="D53" t="s">
-        <v>195</v>
+    <row r="53" spans="3:5" ht="32" x14ac:dyDescent="0.2">
+      <c r="D53" s="7" t="s">
+        <v>262</v>
       </c>
     </row>
     <row r="55" spans="3:5" x14ac:dyDescent="0.2">
       <c r="C55" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
     </row>
     <row r="56" spans="3:5" x14ac:dyDescent="0.2">
       <c r="D56" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="E56" s="1" t="s">
         <v>14</v>
@@ -3225,7 +3319,7 @@
     </row>
     <row r="57" spans="3:5" x14ac:dyDescent="0.2">
       <c r="D57" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="E57" s="2" t="s">
         <v>15</v>
@@ -3233,15 +3327,95 @@
     </row>
     <row r="59" spans="3:5" x14ac:dyDescent="0.2">
       <c r="C59" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
     </row>
     <row r="60" spans="3:5" x14ac:dyDescent="0.2">
       <c r="D60" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="E60" s="1" t="s">
         <v>14</v>
+      </c>
+    </row>
+    <row r="63" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="C63" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="64" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="D64" t="s">
+        <v>249</v>
+      </c>
+      <c r="E64" s="8" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="65" spans="4:5" x14ac:dyDescent="0.2">
+      <c r="D65" t="s">
+        <v>251</v>
+      </c>
+      <c r="E65" s="8" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="66" spans="4:5" x14ac:dyDescent="0.2">
+      <c r="D66" t="s">
+        <v>252</v>
+      </c>
+      <c r="E66" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="67" spans="4:5" x14ac:dyDescent="0.2">
+      <c r="D67" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="68" spans="4:5" x14ac:dyDescent="0.2">
+      <c r="D68" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="69" spans="4:5" x14ac:dyDescent="0.2">
+      <c r="D69" t="s">
+        <v>255</v>
+      </c>
+      <c r="E69" s="8" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="70" spans="4:5" x14ac:dyDescent="0.2">
+      <c r="D70" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="71" spans="4:5" x14ac:dyDescent="0.2">
+      <c r="D71" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="72" spans="4:5" x14ac:dyDescent="0.2">
+      <c r="D72" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="73" spans="4:5" x14ac:dyDescent="0.2">
+      <c r="D73" t="s">
+        <v>259</v>
+      </c>
+      <c r="E73" s="8" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="74" spans="4:5" x14ac:dyDescent="0.2">
+      <c r="D74" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="75" spans="4:5" ht="32" x14ac:dyDescent="0.2">
+      <c r="D75" s="7" t="s">
+        <v>261</v>
       </c>
     </row>
   </sheetData>
@@ -3253,7 +3427,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FB9ABC91-AC07-7449-9663-5AC028EFD06D}">
   <dimension ref="A1:F57"/>
   <sheetViews>
-    <sheetView topLeftCell="A14" zoomScale="123" workbookViewId="0">
+    <sheetView zoomScale="123" workbookViewId="0">
       <selection activeCell="C38" sqref="C38"/>
     </sheetView>
   </sheetViews>
@@ -3275,19 +3449,19 @@
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B3" s="4" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="F3" s="6"/>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.2">
       <c r="C4" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="F4" s="6"/>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.2">
       <c r="D5" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="E5" s="2" t="s">
         <v>15</v>
@@ -3296,7 +3470,7 @@
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.2">
       <c r="D6" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="E6" s="2" t="s">
         <v>15</v>
@@ -3305,13 +3479,13 @@
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.2">
       <c r="D7" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="F7" s="6"/>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.2">
       <c r="D8" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="F8" s="6"/>
     </row>
@@ -3320,7 +3494,7 @@
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.2">
       <c r="C10" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="F10" s="6"/>
     </row>
@@ -3332,7 +3506,7 @@
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.2">
       <c r="D12" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="F12" s="6"/>
     </row>
@@ -3347,13 +3521,13 @@
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.2">
       <c r="D15" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="F15" s="6"/>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.2">
       <c r="D16" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="F16" s="6"/>
     </row>
@@ -3368,7 +3542,7 @@
     </row>
     <row r="19" spans="3:6" x14ac:dyDescent="0.2">
       <c r="D19" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="F19" s="6"/>
     </row>
@@ -3380,7 +3554,7 @@
     </row>
     <row r="22" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C22" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="F22" s="6"/>
     </row>
@@ -3392,7 +3566,7 @@
     </row>
     <row r="24" spans="3:6" x14ac:dyDescent="0.2">
       <c r="D24" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="F24" s="6"/>
     </row>
@@ -3407,13 +3581,13 @@
     </row>
     <row r="27" spans="3:6" x14ac:dyDescent="0.2">
       <c r="D27" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="F27" s="6"/>
     </row>
     <row r="28" spans="3:6" x14ac:dyDescent="0.2">
       <c r="D28" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="F28" s="6"/>
     </row>
@@ -3428,7 +3602,7 @@
     </row>
     <row r="31" spans="3:6" x14ac:dyDescent="0.2">
       <c r="D31" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="F31" s="6"/>
     </row>
@@ -3440,7 +3614,7 @@
     </row>
     <row r="34" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C34" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="F34" s="6"/>
     </row>
@@ -3452,13 +3626,13 @@
     </row>
     <row r="36" spans="3:6" x14ac:dyDescent="0.2">
       <c r="D36" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="F36" s="6"/>
     </row>
     <row r="37" spans="3:6" x14ac:dyDescent="0.2">
       <c r="D37" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="F37" s="6"/>
     </row>
@@ -3473,13 +3647,13 @@
     </row>
     <row r="40" spans="3:6" x14ac:dyDescent="0.2">
       <c r="D40" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="F40" s="6"/>
     </row>
     <row r="41" spans="3:6" x14ac:dyDescent="0.2">
       <c r="D41" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="F41" s="6"/>
     </row>
@@ -3494,7 +3668,7 @@
     </row>
     <row r="44" spans="3:6" x14ac:dyDescent="0.2">
       <c r="D44" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="F44" s="6"/>
     </row>

--- a/study_notes_Pluralsight.xlsx
+++ b/study_notes_Pluralsight.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10913"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{52F5CF77-8E32-584F-BE5B-29B5DC6E6D35}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{88A19CC2-FDBA-4B47-AFC6-8386AAD26EC2}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="6440" yWindow="2100" windowWidth="25800" windowHeight="16840" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="6440" yWindow="2100" windowWidth="25800" windowHeight="16840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Frontend Dev" sheetId="1" r:id="rId1"/>
@@ -1246,8 +1246,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A2:H184"/>
   <sheetViews>
-    <sheetView topLeftCell="A158" zoomScale="118" zoomScaleNormal="110" zoomScalePageLayoutView="85" workbookViewId="0">
-      <selection activeCell="G183" sqref="G183"/>
+    <sheetView tabSelected="1" topLeftCell="A158" zoomScale="118" zoomScaleNormal="110" zoomScalePageLayoutView="85" workbookViewId="0">
+      <selection activeCell="E171" sqref="E171"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -2199,8 +2199,8 @@
       <c r="D171" t="s">
         <v>224</v>
       </c>
-      <c r="E171" s="2" t="s">
-        <v>15</v>
+      <c r="E171" s="1" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="172" spans="4:5" x14ac:dyDescent="0.2">
@@ -3039,8 +3039,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9D1D9DD3-45DB-954C-B749-4F3B65D055A7}">
   <dimension ref="A2:F75"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A49" zoomScale="109" workbookViewId="0">
-      <selection activeCell="K65" sqref="K65"/>
+    <sheetView topLeftCell="A49" zoomScale="109" workbookViewId="0">
+      <selection activeCell="D81" sqref="D81"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>

--- a/study_notes_Pluralsight.xlsx
+++ b/study_notes_Pluralsight.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10913"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{88A19CC2-FDBA-4B47-AFC6-8386AAD26EC2}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{02F6F896-CFA5-D74E-87CF-C7B6BE96F766}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="6440" yWindow="2100" windowWidth="25800" windowHeight="16840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="500" uniqueCount="263">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="502" uniqueCount="264">
   <si>
     <t>Path:</t>
   </si>
@@ -768,12 +768,6 @@
   </si>
   <si>
     <t>(1) Bootstrap: Getting Started</t>
-  </si>
-  <si>
-    <t>(2) Creating a Responsive Layout with Bootstrap Grid</t>
-  </si>
-  <si>
-    <t>(3) Creating Interactivity with JavaScript Based Bootstrap Components</t>
   </si>
   <si>
     <t>10. Bootstrap</t>
@@ -821,6 +815,15 @@
   <si>
     <t>Play by Play: Angular 2/RxJS/HTTP and RESTful Services 
 with John Papa and Dan Wahlin</t>
+  </si>
+  <si>
+    <t>(2) Bootstrap Components: Playbook</t>
+  </si>
+  <si>
+    <t>(3) Creating a Responsive Layout with Bootstrap Grid</t>
+  </si>
+  <si>
+    <t>(4) Creating Interactivity with JavaScript Based Bootstrap Components</t>
   </si>
 </sst>
 </file>
@@ -1244,10 +1247,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A2:H184"/>
+  <dimension ref="A2:H185"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A158" zoomScale="118" zoomScaleNormal="110" zoomScalePageLayoutView="85" workbookViewId="0">
-      <selection activeCell="E171" sqref="E171"/>
+      <selection activeCell="D187" sqref="D187"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -2253,7 +2256,7 @@
     </row>
     <row r="183" spans="3:5" x14ac:dyDescent="0.2">
       <c r="D183" t="s">
-        <v>246</v>
+        <v>261</v>
       </c>
       <c r="E183" s="2" t="s">
         <v>15</v>
@@ -2261,9 +2264,17 @@
     </row>
     <row r="184" spans="3:5" x14ac:dyDescent="0.2">
       <c r="D184" t="s">
-        <v>247</v>
+        <v>262</v>
       </c>
       <c r="E184" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="185" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="D185" t="s">
+        <v>263</v>
+      </c>
+      <c r="E185" s="2" t="s">
         <v>15</v>
       </c>
     </row>
@@ -3301,7 +3312,7 @@
     </row>
     <row r="53" spans="3:5" ht="32" x14ac:dyDescent="0.2">
       <c r="D53" s="7" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
     </row>
     <row r="55" spans="3:5" x14ac:dyDescent="0.2">
@@ -3340,28 +3351,28 @@
     </row>
     <row r="63" spans="3:5" x14ac:dyDescent="0.2">
       <c r="C63" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
     </row>
     <row r="64" spans="3:5" x14ac:dyDescent="0.2">
       <c r="D64" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="E64" s="8" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
     </row>
     <row r="65" spans="4:5" x14ac:dyDescent="0.2">
       <c r="D65" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="E65" s="8" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
     </row>
     <row r="66" spans="4:5" x14ac:dyDescent="0.2">
       <c r="D66" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="E66" s="1" t="s">
         <v>14</v>
@@ -3369,53 +3380,53 @@
     </row>
     <row r="67" spans="4:5" x14ac:dyDescent="0.2">
       <c r="D67" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
     </row>
     <row r="68" spans="4:5" x14ac:dyDescent="0.2">
       <c r="D68" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
     </row>
     <row r="69" spans="4:5" x14ac:dyDescent="0.2">
       <c r="D69" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="E69" s="8" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
     </row>
     <row r="70" spans="4:5" x14ac:dyDescent="0.2">
       <c r="D70" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
     </row>
     <row r="71" spans="4:5" x14ac:dyDescent="0.2">
       <c r="D71" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
     </row>
     <row r="72" spans="4:5" x14ac:dyDescent="0.2">
       <c r="D72" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
     </row>
     <row r="73" spans="4:5" x14ac:dyDescent="0.2">
       <c r="D73" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="E73" s="8" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
     </row>
     <row r="74" spans="4:5" x14ac:dyDescent="0.2">
       <c r="D74" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
     </row>
     <row r="75" spans="4:5" ht="32" x14ac:dyDescent="0.2">
       <c r="D75" s="7" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
     </row>
   </sheetData>

--- a/study_notes_Pluralsight.xlsx
+++ b/study_notes_Pluralsight.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10913"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{02F6F896-CFA5-D74E-87CF-C7B6BE96F766}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{632C124B-9BF1-DC48-A806-ECC8AB74673D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="6440" yWindow="2100" windowWidth="25800" windowHeight="16840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="502" uniqueCount="264">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="504" uniqueCount="264">
   <si>
     <t>Path:</t>
   </si>
@@ -1250,7 +1250,7 @@
   <dimension ref="A2:H185"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A158" zoomScale="118" zoomScaleNormal="110" zoomScalePageLayoutView="85" workbookViewId="0">
-      <selection activeCell="D187" sqref="D187"/>
+      <selection activeCell="E174" sqref="E174"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -2184,6 +2184,9 @@
       <c r="D168" t="s">
         <v>221</v>
       </c>
+      <c r="E168" s="2" t="s">
+        <v>15</v>
+      </c>
     </row>
     <row r="169" spans="4:5" x14ac:dyDescent="0.2">
       <c r="D169" t="s">
@@ -2219,6 +2222,9 @@
     <row r="174" spans="4:5" x14ac:dyDescent="0.2">
       <c r="D174" t="s">
         <v>227</v>
+      </c>
+      <c r="E174" s="2" t="s">
+        <v>15</v>
       </c>
     </row>
     <row r="175" spans="4:5" x14ac:dyDescent="0.2">

--- a/study_notes_Pluralsight.xlsx
+++ b/study_notes_Pluralsight.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10913"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{632C124B-9BF1-DC48-A806-ECC8AB74673D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{05884925-16C2-714D-8F97-14B20C70E99D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="6440" yWindow="2100" windowWidth="25800" windowHeight="16840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="504" uniqueCount="264">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="505" uniqueCount="264">
   <si>
     <t>Path:</t>
   </si>
@@ -1250,7 +1250,7 @@
   <dimension ref="A2:H185"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A158" zoomScale="118" zoomScaleNormal="110" zoomScalePageLayoutView="85" workbookViewId="0">
-      <selection activeCell="E174" sqref="E174"/>
+      <selection activeCell="E172" sqref="E172"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -2184,13 +2184,16 @@
       <c r="D168" t="s">
         <v>221</v>
       </c>
-      <c r="E168" s="2" t="s">
-        <v>15</v>
+      <c r="E168" s="1" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="169" spans="4:5" x14ac:dyDescent="0.2">
       <c r="D169" t="s">
         <v>222</v>
+      </c>
+      <c r="E169" s="2" t="s">
+        <v>15</v>
       </c>
     </row>
     <row r="170" spans="4:5" x14ac:dyDescent="0.2">

--- a/study_notes_Pluralsight.xlsx
+++ b/study_notes_Pluralsight.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10913"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{05884925-16C2-714D-8F97-14B20C70E99D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B4C30DDE-42E1-C34A-AA1B-FD1956F728A3}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="6440" yWindow="2100" windowWidth="25800" windowHeight="16840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="505" uniqueCount="264">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="507" uniqueCount="264">
   <si>
     <t>Path:</t>
   </si>
@@ -1250,7 +1250,7 @@
   <dimension ref="A2:H185"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A158" zoomScale="118" zoomScaleNormal="110" zoomScalePageLayoutView="85" workbookViewId="0">
-      <selection activeCell="E172" sqref="E172"/>
+      <selection activeCell="E176" sqref="E176"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -2192,8 +2192,8 @@
       <c r="D169" t="s">
         <v>222</v>
       </c>
-      <c r="E169" s="2" t="s">
-        <v>15</v>
+      <c r="E169" s="1" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="170" spans="4:5" x14ac:dyDescent="0.2">
@@ -2216,10 +2216,16 @@
       <c r="D172" t="s">
         <v>225</v>
       </c>
+      <c r="E172" s="2" t="s">
+        <v>15</v>
+      </c>
     </row>
     <row r="173" spans="4:5" x14ac:dyDescent="0.2">
       <c r="D173" t="s">
         <v>226</v>
+      </c>
+      <c r="E173" s="2" t="s">
+        <v>15</v>
       </c>
     </row>
     <row r="174" spans="4:5" x14ac:dyDescent="0.2">

--- a/study_notes_Pluralsight.xlsx
+++ b/study_notes_Pluralsight.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10913"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B4C30DDE-42E1-C34A-AA1B-FD1956F728A3}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8384B726-F2F2-5A42-8A44-0DC674A17C3B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="6440" yWindow="2100" windowWidth="25800" windowHeight="16840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="507" uniqueCount="264">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="511" uniqueCount="264">
   <si>
     <t>Path:</t>
   </si>
@@ -1250,7 +1250,7 @@
   <dimension ref="A2:H185"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A158" zoomScale="118" zoomScaleNormal="110" zoomScalePageLayoutView="85" workbookViewId="0">
-      <selection activeCell="E176" sqref="E176"/>
+      <selection activeCell="F177" sqref="F177"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -2232,28 +2232,40 @@
       <c r="D174" t="s">
         <v>227</v>
       </c>
-      <c r="E174" s="2" t="s">
-        <v>15</v>
+      <c r="E174" s="1" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="175" spans="4:5" x14ac:dyDescent="0.2">
       <c r="D175" t="s">
         <v>228</v>
       </c>
+      <c r="E175" s="2" t="s">
+        <v>15</v>
+      </c>
     </row>
     <row r="176" spans="4:5" x14ac:dyDescent="0.2">
       <c r="D176" t="s">
         <v>229</v>
       </c>
+      <c r="E176" s="2" t="s">
+        <v>15</v>
+      </c>
     </row>
     <row r="177" spans="3:5" x14ac:dyDescent="0.2">
       <c r="D177" t="s">
         <v>230</v>
       </c>
+      <c r="E177" s="2" t="s">
+        <v>15</v>
+      </c>
     </row>
     <row r="178" spans="3:5" x14ac:dyDescent="0.2">
       <c r="D178" t="s">
         <v>231</v>
+      </c>
+      <c r="E178" s="2" t="s">
+        <v>15</v>
       </c>
     </row>
     <row r="181" spans="3:5" x14ac:dyDescent="0.2">

--- a/study_notes_Pluralsight.xlsx
+++ b/study_notes_Pluralsight.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10913"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8384B726-F2F2-5A42-8A44-0DC674A17C3B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1C8E000E-64D8-8C4F-A84B-B237A154D49F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="6440" yWindow="2100" windowWidth="25800" windowHeight="16840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1250,7 +1250,7 @@
   <dimension ref="A2:H185"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A158" zoomScale="118" zoomScaleNormal="110" zoomScalePageLayoutView="85" workbookViewId="0">
-      <selection activeCell="F177" sqref="F177"/>
+      <selection activeCell="G180" sqref="G180"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -2277,8 +2277,8 @@
       <c r="D182" t="s">
         <v>245</v>
       </c>
-      <c r="E182" s="2" t="s">
-        <v>15</v>
+      <c r="E182" s="1" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="183" spans="3:5" x14ac:dyDescent="0.2">

--- a/study_notes_Pluralsight.xlsx
+++ b/study_notes_Pluralsight.xlsx
@@ -1,9 +1,9 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10913"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="11011"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1C8E000E-64D8-8C4F-A84B-B237A154D49F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{37A22049-1BB8-4743-AB73-BAB45708D9BE}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="6440" yWindow="2100" windowWidth="25800" windowHeight="16840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1250,7 +1250,7 @@
   <dimension ref="A2:H185"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A158" zoomScale="118" zoomScaleNormal="110" zoomScalePageLayoutView="85" workbookViewId="0">
-      <selection activeCell="G180" sqref="G180"/>
+      <selection activeCell="G182" sqref="G182"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -2285,16 +2285,16 @@
       <c r="D183" t="s">
         <v>261</v>
       </c>
-      <c r="E183" s="2" t="s">
-        <v>15</v>
+      <c r="E183" s="1" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="184" spans="3:5" x14ac:dyDescent="0.2">
       <c r="D184" t="s">
         <v>262</v>
       </c>
-      <c r="E184" s="2" t="s">
-        <v>15</v>
+      <c r="E184" s="1" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="185" spans="3:5" x14ac:dyDescent="0.2">

--- a/study_notes_Pluralsight.xlsx
+++ b/study_notes_Pluralsight.xlsx
@@ -1,9 +1,9 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="11011"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="11108"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{37A22049-1BB8-4743-AB73-BAB45708D9BE}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{004AA376-C359-5D4B-8584-FAEA90648C59}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="6440" yWindow="2100" windowWidth="25800" windowHeight="16840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="511" uniqueCount="264">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="526" uniqueCount="275">
   <si>
     <t>Path:</t>
   </si>
@@ -824,6 +824,39 @@
   </si>
   <si>
     <t>(4) Creating Interactivity with JavaScript Based Bootstrap Components</t>
+  </si>
+  <si>
+    <t>11. JavaScript Core Language</t>
+  </si>
+  <si>
+    <t>(1) JavaScript: Getting Started</t>
+  </si>
+  <si>
+    <t>(2) JavaScript Syntax and Operators</t>
+  </si>
+  <si>
+    <t>(3) JavaScript Variables and Types</t>
+  </si>
+  <si>
+    <t>(4) JavaScript Arrays and Collections</t>
+  </si>
+  <si>
+    <t>(5) Javascript Generators and Iterators</t>
+  </si>
+  <si>
+    <t>(6) Working with JavaScript Modules</t>
+  </si>
+  <si>
+    <t>(7) JavaScript Objects, Prototypes, and Classes</t>
+  </si>
+  <si>
+    <t>(8) JavaScript: Functions</t>
+  </si>
+  <si>
+    <t>(9) JavaScript Promises and Async Programming</t>
+  </si>
+  <si>
+    <t>(10) JavaScript Security: Best Practices</t>
   </si>
 </sst>
 </file>
@@ -1247,10 +1280,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A2:H185"/>
+  <dimension ref="A2:H198"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A158" zoomScale="118" zoomScaleNormal="110" zoomScalePageLayoutView="85" workbookViewId="0">
-      <selection activeCell="G182" sqref="G182"/>
+    <sheetView tabSelected="1" topLeftCell="A173" zoomScale="118" zoomScaleNormal="110" zoomScalePageLayoutView="85" workbookViewId="0">
+      <selection activeCell="G191" sqref="G191"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -2303,6 +2336,73 @@
       </c>
       <c r="E185" s="2" t="s">
         <v>15</v>
+      </c>
+    </row>
+    <row r="188" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="C188" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="189" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="D189" t="s">
+        <v>265</v>
+      </c>
+      <c r="E189" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="190" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="D190" t="s">
+        <v>266</v>
+      </c>
+      <c r="E190" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="191" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="D191" t="s">
+        <v>267</v>
+      </c>
+      <c r="E191" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="192" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="D192" t="s">
+        <v>268</v>
+      </c>
+      <c r="E192" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="193" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D193" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="194" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D194" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="195" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D195" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="196" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D196" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="197" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D197" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="198" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D198" t="s">
+        <v>274</v>
       </c>
     </row>
   </sheetData>

--- a/study_notes_Pluralsight.xlsx
+++ b/study_notes_Pluralsight.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="11108"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{004AA376-C359-5D4B-8584-FAEA90648C59}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{77E9A729-06FA-EA4F-AC94-1E11A9D7975E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="6440" yWindow="2100" windowWidth="25800" windowHeight="16840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1283,7 +1283,7 @@
   <dimension ref="A2:H198"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A173" zoomScale="118" zoomScaleNormal="110" zoomScalePageLayoutView="85" workbookViewId="0">
-      <selection activeCell="G191" sqref="G191"/>
+      <selection activeCell="E190" sqref="E190"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -2355,8 +2355,8 @@
       <c r="D190" t="s">
         <v>266</v>
       </c>
-      <c r="E190" s="2" t="s">
-        <v>15</v>
+      <c r="E190" s="1" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="191" spans="3:5" x14ac:dyDescent="0.2">

--- a/study_notes_Pluralsight.xlsx
+++ b/study_notes_Pluralsight.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="11108"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{77E9A729-06FA-EA4F-AC94-1E11A9D7975E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E2F613BC-05A4-234C-A82F-ABF9816D4E2E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="6440" yWindow="2100" windowWidth="25800" windowHeight="16840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1283,7 +1283,7 @@
   <dimension ref="A2:H198"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A173" zoomScale="118" zoomScaleNormal="110" zoomScalePageLayoutView="85" workbookViewId="0">
-      <selection activeCell="E190" sqref="E190"/>
+      <selection activeCell="E191" sqref="E191"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -2363,8 +2363,8 @@
       <c r="D191" t="s">
         <v>267</v>
       </c>
-      <c r="E191" s="2" t="s">
-        <v>15</v>
+      <c r="E191" s="1" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="192" spans="3:5" x14ac:dyDescent="0.2">

--- a/study_notes_Pluralsight.xlsx
+++ b/study_notes_Pluralsight.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="11108"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E2F613BC-05A4-234C-A82F-ABF9816D4E2E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9DB9EFB0-60B8-084C-B7FA-36D281859C83}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="6440" yWindow="2100" windowWidth="25800" windowHeight="16840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="526" uniqueCount="275">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="529" uniqueCount="275">
   <si>
     <t>Path:</t>
   </si>
@@ -1283,7 +1283,7 @@
   <dimension ref="A2:H198"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A173" zoomScale="118" zoomScaleNormal="110" zoomScalePageLayoutView="85" workbookViewId="0">
-      <selection activeCell="E191" sqref="E191"/>
+      <selection activeCell="E196" sqref="E196"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -2371,36 +2371,45 @@
       <c r="D192" t="s">
         <v>268</v>
       </c>
-      <c r="E192" s="2" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="193" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="E192" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="193" spans="4:5" x14ac:dyDescent="0.2">
       <c r="D193" t="s">
         <v>269</v>
       </c>
-    </row>
-    <row r="194" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="E193" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="194" spans="4:5" x14ac:dyDescent="0.2">
       <c r="D194" t="s">
         <v>270</v>
       </c>
-    </row>
-    <row r="195" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="E194" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="195" spans="4:5" x14ac:dyDescent="0.2">
       <c r="D195" t="s">
         <v>271</v>
       </c>
     </row>
-    <row r="196" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="196" spans="4:5" x14ac:dyDescent="0.2">
       <c r="D196" t="s">
         <v>272</v>
       </c>
-    </row>
-    <row r="197" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="E196" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="197" spans="4:5" x14ac:dyDescent="0.2">
       <c r="D197" t="s">
         <v>273</v>
       </c>
     </row>
-    <row r="198" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="198" spans="4:5" x14ac:dyDescent="0.2">
       <c r="D198" t="s">
         <v>274</v>
       </c>

--- a/study_notes_Pluralsight.xlsx
+++ b/study_notes_Pluralsight.xlsx
@@ -1,9 +1,9 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="11108"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="11213"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9DB9EFB0-60B8-084C-B7FA-36D281859C83}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{90D661BE-63D4-3B4C-AA8C-EFB54CAF0547}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="6440" yWindow="2100" windowWidth="25800" windowHeight="16840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1283,7 +1283,7 @@
   <dimension ref="A2:H198"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A173" zoomScale="118" zoomScaleNormal="110" zoomScalePageLayoutView="85" workbookViewId="0">
-      <selection activeCell="E196" sqref="E196"/>
+      <selection activeCell="E194" sqref="E194"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -2387,8 +2387,8 @@
       <c r="D194" t="s">
         <v>270</v>
       </c>
-      <c r="E194" s="2" t="s">
-        <v>15</v>
+      <c r="E194" s="1" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="195" spans="4:5" x14ac:dyDescent="0.2">

--- a/study_notes_Pluralsight.xlsx
+++ b/study_notes_Pluralsight.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="11213"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{90D661BE-63D4-3B4C-AA8C-EFB54CAF0547}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1C1D7B0A-A9A4-8746-9519-EBEC8D2AEEDA}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="6440" yWindow="2100" windowWidth="25800" windowHeight="16840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="529" uniqueCount="275">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="530" uniqueCount="275">
   <si>
     <t>Path:</t>
   </si>
@@ -1283,7 +1283,7 @@
   <dimension ref="A2:H198"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A173" zoomScale="118" zoomScaleNormal="110" zoomScalePageLayoutView="85" workbookViewId="0">
-      <selection activeCell="E194" sqref="E194"/>
+      <selection activeCell="E198" sqref="E198"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -2379,8 +2379,8 @@
       <c r="D193" t="s">
         <v>269</v>
       </c>
-      <c r="E193" s="2" t="s">
-        <v>15</v>
+      <c r="E193" s="1" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="194" spans="4:5" x14ac:dyDescent="0.2">
@@ -2394,6 +2394,9 @@
     <row r="195" spans="4:5" x14ac:dyDescent="0.2">
       <c r="D195" t="s">
         <v>271</v>
+      </c>
+      <c r="E195" s="2" t="s">
+        <v>15</v>
       </c>
     </row>
     <row r="196" spans="4:5" x14ac:dyDescent="0.2">

--- a/study_notes_Pluralsight.xlsx
+++ b/study_notes_Pluralsight.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="11213"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1C1D7B0A-A9A4-8746-9519-EBEC8D2AEEDA}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1C80864B-A23E-A949-A3EB-CBC7F65E0376}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="6440" yWindow="2100" windowWidth="25800" windowHeight="16840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="530" uniqueCount="275">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="561" uniqueCount="278">
   <si>
     <t>Path:</t>
   </si>
@@ -857,6 +857,15 @@
   </si>
   <si>
     <t>(10) JavaScript Security: Best Practices</t>
+  </si>
+  <si>
+    <t>12. Typescript Core Language</t>
+  </si>
+  <si>
+    <t>(5) Adding Styling with Bootstrap Typography and Utilities</t>
+  </si>
+  <si>
+    <t>(1) TypeScript: The Big Picture</t>
   </si>
 </sst>
 </file>
@@ -1280,10 +1289,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A2:H198"/>
+  <dimension ref="A2:H217"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A173" zoomScale="118" zoomScaleNormal="110" zoomScalePageLayoutView="85" workbookViewId="0">
-      <selection activeCell="E198" sqref="E198"/>
+    <sheetView tabSelected="1" topLeftCell="A184" zoomScale="118" zoomScaleNormal="110" zoomScalePageLayoutView="85" workbookViewId="0">
+      <selection activeCell="H203" sqref="H203"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -2338,22 +2347,22 @@
         <v>15</v>
       </c>
     </row>
-    <row r="188" spans="3:5" x14ac:dyDescent="0.2">
-      <c r="C188" t="s">
+    <row r="186" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="D186" t="s">
+        <v>276</v>
+      </c>
+      <c r="E186" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="189" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="C189" t="s">
         <v>264</v>
-      </c>
-    </row>
-    <row r="189" spans="3:5" x14ac:dyDescent="0.2">
-      <c r="D189" t="s">
-        <v>265</v>
-      </c>
-      <c r="E189" s="1" t="s">
-        <v>14</v>
       </c>
     </row>
     <row r="190" spans="3:5" x14ac:dyDescent="0.2">
       <c r="D190" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="E190" s="1" t="s">
         <v>14</v>
@@ -2361,7 +2370,7 @@
     </row>
     <row r="191" spans="3:5" x14ac:dyDescent="0.2">
       <c r="D191" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="E191" s="1" t="s">
         <v>14</v>
@@ -2369,52 +2378,177 @@
     </row>
     <row r="192" spans="3:5" x14ac:dyDescent="0.2">
       <c r="D192" t="s">
+        <v>267</v>
+      </c>
+      <c r="E192" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="193" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="D193" t="s">
         <v>268</v>
       </c>
-      <c r="E192" s="1" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="193" spans="4:5" x14ac:dyDescent="0.2">
-      <c r="D193" t="s">
+      <c r="E193" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="194" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="D194" t="s">
         <v>269</v>
       </c>
-      <c r="E193" s="1" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="194" spans="4:5" x14ac:dyDescent="0.2">
-      <c r="D194" t="s">
+      <c r="E194" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="195" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="D195" t="s">
         <v>270</v>
       </c>
-      <c r="E194" s="1" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="195" spans="4:5" x14ac:dyDescent="0.2">
-      <c r="D195" t="s">
+      <c r="E195" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="196" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="D196" t="s">
         <v>271</v>
       </c>
-      <c r="E195" s="2" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="196" spans="4:5" x14ac:dyDescent="0.2">
-      <c r="D196" t="s">
+      <c r="E196" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="197" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="D197" t="s">
         <v>272</v>
       </c>
-      <c r="E196" s="2" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="197" spans="4:5" x14ac:dyDescent="0.2">
-      <c r="D197" t="s">
+      <c r="E197" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="198" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="D198" t="s">
         <v>273</v>
       </c>
-    </row>
-    <row r="198" spans="4:5" x14ac:dyDescent="0.2">
-      <c r="D198" t="s">
+      <c r="E198" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="199" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="D199" t="s">
         <v>274</v>
+      </c>
+      <c r="E199" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="202" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="C202" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="203" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="D203" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="204" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="D204" t="s">
+        <v>277</v>
+      </c>
+      <c r="E204" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="205" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="D205" t="s">
+        <v>80</v>
+      </c>
+      <c r="E205" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="206" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="D206" t="s">
+        <v>81</v>
+      </c>
+      <c r="E206" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="207" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="D207" t="s">
+        <v>82</v>
+      </c>
+      <c r="E207" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="209" spans="4:5" x14ac:dyDescent="0.2">
+      <c r="D209" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="210" spans="4:5" x14ac:dyDescent="0.2">
+      <c r="D210" t="s">
+        <v>83</v>
+      </c>
+      <c r="E210" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="211" spans="4:5" x14ac:dyDescent="0.2">
+      <c r="D211" t="s">
+        <v>84</v>
+      </c>
+      <c r="E211" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="212" spans="4:5" x14ac:dyDescent="0.2">
+      <c r="D212" t="s">
+        <v>85</v>
+      </c>
+      <c r="E212" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="213" spans="4:5" x14ac:dyDescent="0.2">
+      <c r="D213" t="s">
+        <v>86</v>
+      </c>
+      <c r="E213" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="214" spans="4:5" x14ac:dyDescent="0.2">
+      <c r="D214" t="s">
+        <v>87</v>
+      </c>
+      <c r="E214" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="215" spans="4:5" x14ac:dyDescent="0.2">
+      <c r="D215" t="s">
+        <v>88</v>
+      </c>
+      <c r="E215" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="216" spans="4:5" x14ac:dyDescent="0.2">
+      <c r="D216" t="s">
+        <v>89</v>
+      </c>
+      <c r="E216" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="217" spans="4:5" x14ac:dyDescent="0.2">
+      <c r="D217" t="s">
+        <v>90</v>
+      </c>
+      <c r="E217" s="1" t="s">
+        <v>14</v>
       </c>
     </row>
   </sheetData>
@@ -3189,7 +3323,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9D1D9DD3-45DB-954C-B749-4F3B65D055A7}">
   <dimension ref="A2:F75"/>
   <sheetViews>
-    <sheetView topLeftCell="A49" zoomScale="109" workbookViewId="0">
+    <sheetView topLeftCell="A3" zoomScale="109" workbookViewId="0">
       <selection activeCell="D81" sqref="D81"/>
     </sheetView>
   </sheetViews>

--- a/study_notes_Pluralsight.xlsx
+++ b/study_notes_Pluralsight.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="11213"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1C80864B-A23E-A949-A3EB-CBC7F65E0376}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8E3C0199-CAD3-DE49-9A7F-74FD6F79885E}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="6440" yWindow="2100" windowWidth="25800" windowHeight="16840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="561" uniqueCount="278">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="549" uniqueCount="287">
   <si>
     <t>Path:</t>
   </si>
@@ -866,6 +866,33 @@
   </si>
   <si>
     <t>(1) TypeScript: The Big Picture</t>
+  </si>
+  <si>
+    <t>(2) TypeScript: Getting Started</t>
+  </si>
+  <si>
+    <t>(1) Creating Object-oriented TypeScript Code</t>
+  </si>
+  <si>
+    <t>(2) Creating Asynchronous TypeScript Code</t>
+  </si>
+  <si>
+    <t>(3) Configuring, Compiling, and Debugging TypeScript Projects</t>
+  </si>
+  <si>
+    <t>(4) Using TypeScript Modules</t>
+  </si>
+  <si>
+    <t>(5) Creating and Using Generics in TypeScript</t>
+  </si>
+  <si>
+    <t>(6) Creating and Using TypeScript Decorators</t>
+  </si>
+  <si>
+    <t>(7) Using Specialized Types and Language Features in TypeScript</t>
+  </si>
+  <si>
+    <t>(8) Creating a TypeScript Declaration File</t>
   </si>
 </sst>
 </file>
@@ -1289,10 +1316,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A2:H217"/>
+  <dimension ref="A2:H215"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A184" zoomScale="118" zoomScaleNormal="110" zoomScalePageLayoutView="85" workbookViewId="0">
-      <selection activeCell="H203" sqref="H203"/>
+    <sheetView tabSelected="1" topLeftCell="A187" zoomScale="118" zoomScaleNormal="110" zoomScalePageLayoutView="85" workbookViewId="0">
+      <selection activeCell="F213" sqref="F213"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -2460,95 +2487,55 @@
     </row>
     <row r="205" spans="3:5" x14ac:dyDescent="0.2">
       <c r="D205" t="s">
-        <v>80</v>
-      </c>
-      <c r="E205" s="1" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="206" spans="3:5" x14ac:dyDescent="0.2">
-      <c r="D206" t="s">
-        <v>81</v>
-      </c>
-      <c r="E206" s="1" t="s">
-        <v>14</v>
+        <v>278</v>
+      </c>
+      <c r="E205" s="2" t="s">
+        <v>15</v>
       </c>
     </row>
     <row r="207" spans="3:5" x14ac:dyDescent="0.2">
       <c r="D207" t="s">
-        <v>82</v>
-      </c>
-      <c r="E207" s="1" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="209" spans="4:5" x14ac:dyDescent="0.2">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="208" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="D208" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="209" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D209" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="210" spans="4:5" x14ac:dyDescent="0.2">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="210" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D210" t="s">
-        <v>83</v>
-      </c>
-      <c r="E210" s="2" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="211" spans="4:5" x14ac:dyDescent="0.2">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="211" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D211" t="s">
-        <v>84</v>
-      </c>
-      <c r="E211" s="2" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="212" spans="4:5" x14ac:dyDescent="0.2">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="212" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D212" t="s">
-        <v>85</v>
-      </c>
-      <c r="E212" s="2" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="213" spans="4:5" x14ac:dyDescent="0.2">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="213" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D213" t="s">
-        <v>86</v>
-      </c>
-      <c r="E213" s="2" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="214" spans="4:5" x14ac:dyDescent="0.2">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="214" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D214" t="s">
-        <v>87</v>
-      </c>
-      <c r="E214" s="1" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="215" spans="4:5" x14ac:dyDescent="0.2">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="215" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D215" t="s">
-        <v>88</v>
-      </c>
-      <c r="E215" s="2" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="216" spans="4:5" x14ac:dyDescent="0.2">
-      <c r="D216" t="s">
-        <v>89</v>
-      </c>
-      <c r="E216" s="1" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="217" spans="4:5" x14ac:dyDescent="0.2">
-      <c r="D217" t="s">
-        <v>90</v>
-      </c>
-      <c r="E217" s="1" t="s">
-        <v>14</v>
+        <v>286</v>
       </c>
     </row>
   </sheetData>

--- a/study_notes_Pluralsight.xlsx
+++ b/study_notes_Pluralsight.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="11213"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8E3C0199-CAD3-DE49-9A7F-74FD6F79885E}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DE793B05-5E5F-294E-9523-FD730788C749}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="6440" yWindow="2100" windowWidth="25800" windowHeight="16840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1319,7 +1319,7 @@
   <dimension ref="A2:H215"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A187" zoomScale="118" zoomScaleNormal="110" zoomScalePageLayoutView="85" workbookViewId="0">
-      <selection activeCell="F213" sqref="F213"/>
+      <selection activeCell="E204" sqref="E204"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -2481,8 +2481,8 @@
       <c r="D204" t="s">
         <v>277</v>
       </c>
-      <c r="E204" s="2" t="s">
-        <v>15</v>
+      <c r="E204" s="1" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="205" spans="3:5" x14ac:dyDescent="0.2">

--- a/study_notes_Pluralsight.xlsx
+++ b/study_notes_Pluralsight.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="11213"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DE793B05-5E5F-294E-9523-FD730788C749}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{774509AF-FE90-AC4A-AB7C-0A7479B33DD6}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="6440" yWindow="2100" windowWidth="25800" windowHeight="16840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="549" uniqueCount="287">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="550" uniqueCount="287">
   <si>
     <t>Path:</t>
   </si>
@@ -1319,7 +1319,7 @@
   <dimension ref="A2:H215"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A187" zoomScale="118" zoomScaleNormal="110" zoomScalePageLayoutView="85" workbookViewId="0">
-      <selection activeCell="E204" sqref="E204"/>
+      <selection activeCell="E208" sqref="E208"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -2489,8 +2489,8 @@
       <c r="D205" t="s">
         <v>278</v>
       </c>
-      <c r="E205" s="2" t="s">
-        <v>15</v>
+      <c r="E205" s="1" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="207" spans="3:5" x14ac:dyDescent="0.2">
@@ -2501,6 +2501,9 @@
     <row r="208" spans="3:5" x14ac:dyDescent="0.2">
       <c r="D208" t="s">
         <v>279</v>
+      </c>
+      <c r="E208" s="2" t="s">
+        <v>15</v>
       </c>
     </row>
     <row r="209" spans="4:4" x14ac:dyDescent="0.2">

--- a/study_notes_Pluralsight.xlsx
+++ b/study_notes_Pluralsight.xlsx
@@ -1,9 +1,9 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="11213"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10111"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{774509AF-FE90-AC4A-AB7C-0A7479B33DD6}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{15138B60-301D-4D4A-8358-7E29923429C2}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="6440" yWindow="2100" windowWidth="25800" windowHeight="16840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="550" uniqueCount="287">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="553" uniqueCount="287">
   <si>
     <t>Path:</t>
   </si>
@@ -1319,7 +1319,7 @@
   <dimension ref="A2:H215"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A187" zoomScale="118" zoomScaleNormal="110" zoomScalePageLayoutView="85" workbookViewId="0">
-      <selection activeCell="E208" sqref="E208"/>
+      <selection activeCell="E211" sqref="E211"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -2502,41 +2502,50 @@
       <c r="D208" t="s">
         <v>279</v>
       </c>
-      <c r="E208" s="2" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="209" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="E208" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="209" spans="4:5" x14ac:dyDescent="0.2">
       <c r="D209" t="s">
         <v>280</v>
       </c>
-    </row>
-    <row r="210" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="E209" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="210" spans="4:5" x14ac:dyDescent="0.2">
       <c r="D210" t="s">
         <v>281</v>
       </c>
-    </row>
-    <row r="211" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="E210" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="211" spans="4:5" x14ac:dyDescent="0.2">
       <c r="D211" t="s">
         <v>282</v>
       </c>
-    </row>
-    <row r="212" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="E211" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="212" spans="4:5" x14ac:dyDescent="0.2">
       <c r="D212" t="s">
         <v>283</v>
       </c>
     </row>
-    <row r="213" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="213" spans="4:5" x14ac:dyDescent="0.2">
       <c r="D213" t="s">
         <v>284</v>
       </c>
     </row>
-    <row r="214" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="214" spans="4:5" x14ac:dyDescent="0.2">
       <c r="D214" t="s">
         <v>285</v>
       </c>
     </row>
-    <row r="215" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="215" spans="4:5" x14ac:dyDescent="0.2">
       <c r="D215" t="s">
         <v>286</v>
       </c>

--- a/study_notes_Pluralsight.xlsx
+++ b/study_notes_Pluralsight.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10111"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{15138B60-301D-4D4A-8358-7E29923429C2}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{353D36E6-BF14-1F4A-85B3-E18180F1D47E}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="6440" yWindow="2100" windowWidth="25800" windowHeight="16840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="6440" yWindow="2100" windowWidth="25800" windowHeight="16840" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Frontend Dev" sheetId="1" r:id="rId1"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="553" uniqueCount="287">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="555" uniqueCount="287">
   <si>
     <t>Path:</t>
   </si>
@@ -1318,8 +1318,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A2:H215"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A187" zoomScale="118" zoomScaleNormal="110" zoomScalePageLayoutView="85" workbookViewId="0">
-      <selection activeCell="E211" sqref="E211"/>
+    <sheetView topLeftCell="A192" zoomScale="118" zoomScaleNormal="110" zoomScalePageLayoutView="85" workbookViewId="0">
+      <selection activeCell="D216" sqref="D216"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -3322,8 +3322,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9D1D9DD3-45DB-954C-B749-4F3B65D055A7}">
   <dimension ref="A2:F75"/>
   <sheetViews>
-    <sheetView topLeftCell="A3" zoomScale="109" workbookViewId="0">
-      <selection activeCell="D81" sqref="D81"/>
+    <sheetView tabSelected="1" topLeftCell="A31" zoomScale="109" workbookViewId="0">
+      <selection activeCell="E53" sqref="E53"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -3566,10 +3566,16 @@
       <c r="D49" t="s">
         <v>192</v>
       </c>
+      <c r="E49" s="2" t="s">
+        <v>15</v>
+      </c>
     </row>
     <row r="50" spans="3:5" x14ac:dyDescent="0.2">
       <c r="D50" t="s">
         <v>195</v>
+      </c>
+      <c r="E50" s="2" t="s">
+        <v>15</v>
       </c>
     </row>
     <row r="51" spans="3:5" x14ac:dyDescent="0.2">

--- a/study_notes_Pluralsight.xlsx
+++ b/study_notes_Pluralsight.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10111"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{353D36E6-BF14-1F4A-85B3-E18180F1D47E}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{568BA54A-3461-A145-8DDB-906E6A245E84}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="6440" yWindow="2100" windowWidth="25800" windowHeight="16840" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -3322,8 +3322,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9D1D9DD3-45DB-954C-B749-4F3B65D055A7}">
   <dimension ref="A2:F75"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A31" zoomScale="109" workbookViewId="0">
-      <selection activeCell="E53" sqref="E53"/>
+    <sheetView tabSelected="1" topLeftCell="A38" zoomScale="109" workbookViewId="0">
+      <selection activeCell="H48" sqref="H48"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -3558,8 +3558,8 @@
       <c r="D48" t="s">
         <v>191</v>
       </c>
-      <c r="E48" s="2" t="s">
-        <v>15</v>
+      <c r="E48" s="1" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="49" spans="3:5" x14ac:dyDescent="0.2">

--- a/study_notes_Pluralsight.xlsx
+++ b/study_notes_Pluralsight.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10111"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{568BA54A-3461-A145-8DDB-906E6A245E84}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B05E245E-879C-5641-9688-CE035A546034}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="6440" yWindow="2100" windowWidth="25800" windowHeight="16840" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="6440" yWindow="2100" windowWidth="25800" windowHeight="16840" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Frontend Dev" sheetId="1" r:id="rId1"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="555" uniqueCount="287">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="560" uniqueCount="290">
   <si>
     <t>Path:</t>
   </si>
@@ -893,6 +893,15 @@
   </si>
   <si>
     <t>(8) Creating a TypeScript Declaration File</t>
+  </si>
+  <si>
+    <t>5. Misc</t>
+  </si>
+  <si>
+    <t>Getting Started in UX Design</t>
+  </si>
+  <si>
+    <t>UX Strategy Fundamentals</t>
   </si>
 </sst>
 </file>
@@ -3322,8 +3331,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9D1D9DD3-45DB-954C-B749-4F3B65D055A7}">
   <dimension ref="A2:F75"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A38" zoomScale="109" workbookViewId="0">
-      <selection activeCell="H48" sqref="H48"/>
+    <sheetView topLeftCell="A38" zoomScale="109" workbookViewId="0">
+      <selection activeCell="E47" sqref="E47"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -3716,8 +3725,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FB9ABC91-AC07-7449-9663-5AC028EFD06D}">
   <dimension ref="A1:F57"/>
   <sheetViews>
-    <sheetView zoomScale="123" workbookViewId="0">
-      <selection activeCell="C38" sqref="C38"/>
+    <sheetView tabSelected="1" topLeftCell="A29" zoomScale="123" workbookViewId="0">
+      <selection activeCell="E52" sqref="E52"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -3968,36 +3977,51 @@
       <c r="F46" s="6"/>
     </row>
     <row r="47" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="C47" t="s">
+        <v>287</v>
+      </c>
       <c r="F47" s="6"/>
     </row>
-    <row r="48" spans="3:6" x14ac:dyDescent="0.2">
+    <row r="48" spans="3:6" ht="16" x14ac:dyDescent="0.2">
+      <c r="D48" s="7" t="s">
+        <v>288</v>
+      </c>
+      <c r="E48" s="1" t="s">
+        <v>14</v>
+      </c>
       <c r="F48" s="6"/>
     </row>
-    <row r="49" spans="6:6" x14ac:dyDescent="0.2">
+    <row r="49" spans="4:6" ht="16" x14ac:dyDescent="0.2">
+      <c r="D49" s="7" t="s">
+        <v>289</v>
+      </c>
+      <c r="E49" s="2" t="s">
+        <v>15</v>
+      </c>
       <c r="F49" s="6"/>
     </row>
-    <row r="50" spans="6:6" x14ac:dyDescent="0.2">
+    <row r="50" spans="4:6" x14ac:dyDescent="0.2">
       <c r="F50" s="6"/>
     </row>
-    <row r="51" spans="6:6" x14ac:dyDescent="0.2">
+    <row r="51" spans="4:6" x14ac:dyDescent="0.2">
       <c r="F51" s="6"/>
     </row>
-    <row r="52" spans="6:6" x14ac:dyDescent="0.2">
+    <row r="52" spans="4:6" x14ac:dyDescent="0.2">
       <c r="F52" s="6"/>
     </row>
-    <row r="53" spans="6:6" x14ac:dyDescent="0.2">
+    <row r="53" spans="4:6" x14ac:dyDescent="0.2">
       <c r="F53" s="6"/>
     </row>
-    <row r="54" spans="6:6" x14ac:dyDescent="0.2">
+    <row r="54" spans="4:6" x14ac:dyDescent="0.2">
       <c r="F54" s="6"/>
     </row>
-    <row r="55" spans="6:6" x14ac:dyDescent="0.2">
+    <row r="55" spans="4:6" x14ac:dyDescent="0.2">
       <c r="F55" s="6"/>
     </row>
-    <row r="56" spans="6:6" x14ac:dyDescent="0.2">
+    <row r="56" spans="4:6" x14ac:dyDescent="0.2">
       <c r="F56" s="6"/>
     </row>
-    <row r="57" spans="6:6" x14ac:dyDescent="0.2">
+    <row r="57" spans="4:6" x14ac:dyDescent="0.2">
       <c r="F57" s="6"/>
     </row>
   </sheetData>

--- a/study_notes_Pluralsight.xlsx
+++ b/study_notes_Pluralsight.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10111"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B05E245E-879C-5641-9688-CE035A546034}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7BDB95BC-7196-784B-830E-EF998FC73CD9}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="6440" yWindow="2100" windowWidth="25800" windowHeight="16840" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="560" uniqueCount="290">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="564" uniqueCount="294">
   <si>
     <t>Path:</t>
   </si>
@@ -902,6 +902,18 @@
   </si>
   <si>
     <t>UX Strategy Fundamentals</t>
+  </si>
+  <si>
+    <t>Making Sense of UX and Design in the Enterprise</t>
+  </si>
+  <si>
+    <t>UX Fundamentals</t>
+  </si>
+  <si>
+    <t>Hacking the User Experience / UX for Developers</t>
+  </si>
+  <si>
+    <t>User Experience: The Big Picture</t>
   </si>
 </sst>
 </file>
@@ -3726,7 +3738,7 @@
   <dimension ref="A1:F57"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A29" zoomScale="123" workbookViewId="0">
-      <selection activeCell="E52" sqref="E52"/>
+      <selection activeCell="D54" sqref="D54"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -4001,15 +4013,27 @@
       <c r="F49" s="6"/>
     </row>
     <row r="50" spans="4:6" x14ac:dyDescent="0.2">
+      <c r="D50" t="s">
+        <v>290</v>
+      </c>
       <c r="F50" s="6"/>
     </row>
     <row r="51" spans="4:6" x14ac:dyDescent="0.2">
+      <c r="D51" t="s">
+        <v>291</v>
+      </c>
       <c r="F51" s="6"/>
     </row>
     <row r="52" spans="4:6" x14ac:dyDescent="0.2">
+      <c r="D52" t="s">
+        <v>292</v>
+      </c>
       <c r="F52" s="6"/>
     </row>
     <row r="53" spans="4:6" x14ac:dyDescent="0.2">
+      <c r="D53" t="s">
+        <v>293</v>
+      </c>
       <c r="F53" s="6"/>
     </row>
     <row r="54" spans="4:6" x14ac:dyDescent="0.2">

--- a/study_notes_Pluralsight.xlsx
+++ b/study_notes_Pluralsight.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10111"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7BDB95BC-7196-784B-830E-EF998FC73CD9}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8D938545-0D5B-974F-8362-08BDDBC8FF79}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="6440" yWindow="2100" windowWidth="25800" windowHeight="16840" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="564" uniqueCount="294">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="565" uniqueCount="294">
   <si>
     <t>Path:</t>
   </si>
@@ -3738,7 +3738,7 @@
   <dimension ref="A1:F57"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A29" zoomScale="123" workbookViewId="0">
-      <selection activeCell="D54" sqref="D54"/>
+      <selection activeCell="E54" sqref="E54"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -4016,6 +4016,9 @@
       <c r="D50" t="s">
         <v>290</v>
       </c>
+      <c r="E50" s="2" t="s">
+        <v>15</v>
+      </c>
       <c r="F50" s="6"/>
     </row>
     <row r="51" spans="4:6" x14ac:dyDescent="0.2">

--- a/study_notes_Pluralsight.xlsx
+++ b/study_notes_Pluralsight.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10111"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8D938545-0D5B-974F-8362-08BDDBC8FF79}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{448FD6DD-7CA7-F64B-8E79-13B7F8389378}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="6440" yWindow="2100" windowWidth="25800" windowHeight="16840" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="565" uniqueCount="294">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="566" uniqueCount="294">
   <si>
     <t>Path:</t>
   </si>
@@ -3738,7 +3738,7 @@
   <dimension ref="A1:F57"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A29" zoomScale="123" workbookViewId="0">
-      <selection activeCell="E54" sqref="E54"/>
+      <selection activeCell="E53" sqref="E53"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -4037,6 +4037,9 @@
       <c r="D53" t="s">
         <v>293</v>
       </c>
+      <c r="E53" s="2" t="s">
+        <v>15</v>
+      </c>
       <c r="F53" s="6"/>
     </row>
     <row r="54" spans="4:6" x14ac:dyDescent="0.2">

--- a/study_notes_Pluralsight.xlsx
+++ b/study_notes_Pluralsight.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10111"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10323"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{448FD6DD-7CA7-F64B-8E79-13B7F8389378}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1BADCA2A-9AB7-8147-8980-001506C24DA1}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="6440" yWindow="2100" windowWidth="25800" windowHeight="16840" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="6440" yWindow="2100" windowWidth="25800" windowHeight="16840" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Frontend Dev" sheetId="1" r:id="rId1"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="566" uniqueCount="294">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="571" uniqueCount="297">
   <si>
     <t>Path:</t>
   </si>
@@ -914,6 +914,15 @@
   </si>
   <si>
     <t>User Experience: The Big Picture</t>
+  </si>
+  <si>
+    <t>11. CSS SASS LESS</t>
+  </si>
+  <si>
+    <t>Hands on Responsive Design Using a CSS Preprocessor</t>
+  </si>
+  <si>
+    <t>A Better CSS: LESS and SASS</t>
   </si>
 </sst>
 </file>
@@ -1339,8 +1348,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A2:H215"/>
   <sheetViews>
-    <sheetView topLeftCell="A192" zoomScale="118" zoomScaleNormal="110" zoomScalePageLayoutView="85" workbookViewId="0">
-      <selection activeCell="D216" sqref="D216"/>
+    <sheetView topLeftCell="A52" zoomScale="118" zoomScaleNormal="110" zoomScalePageLayoutView="85" workbookViewId="0">
+      <selection activeCell="D68" sqref="D68"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -3341,17 +3350,17 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9D1D9DD3-45DB-954C-B749-4F3B65D055A7}">
-  <dimension ref="A2:F75"/>
+  <dimension ref="A2:F79"/>
   <sheetViews>
-    <sheetView topLeftCell="A38" zoomScale="109" workbookViewId="0">
-      <selection activeCell="E47" sqref="E47"/>
+    <sheetView tabSelected="1" topLeftCell="A48" zoomScale="109" workbookViewId="0">
+      <selection activeCell="E78" sqref="E78"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="6.1640625" customWidth="1"/>
     <col min="2" max="2" width="14.6640625" customWidth="1"/>
-    <col min="3" max="3" width="12.33203125" customWidth="1"/>
+    <col min="3" max="3" width="19.33203125" customWidth="1"/>
     <col min="4" max="4" width="50.33203125" customWidth="1"/>
     <col min="5" max="5" width="17.5" customWidth="1"/>
     <col min="6" max="6" width="7.5" style="6" customWidth="1"/>
@@ -3661,7 +3670,7 @@
         <v>248</v>
       </c>
     </row>
-    <row r="65" spans="4:5" x14ac:dyDescent="0.2">
+    <row r="65" spans="3:5" x14ac:dyDescent="0.2">
       <c r="D65" t="s">
         <v>249</v>
       </c>
@@ -3669,7 +3678,7 @@
         <v>248</v>
       </c>
     </row>
-    <row r="66" spans="4:5" x14ac:dyDescent="0.2">
+    <row r="66" spans="3:5" x14ac:dyDescent="0.2">
       <c r="D66" t="s">
         <v>250</v>
       </c>
@@ -3677,17 +3686,17 @@
         <v>14</v>
       </c>
     </row>
-    <row r="67" spans="4:5" x14ac:dyDescent="0.2">
+    <row r="67" spans="3:5" x14ac:dyDescent="0.2">
       <c r="D67" t="s">
         <v>251</v>
       </c>
     </row>
-    <row r="68" spans="4:5" x14ac:dyDescent="0.2">
+    <row r="68" spans="3:5" x14ac:dyDescent="0.2">
       <c r="D68" t="s">
         <v>252</v>
       </c>
     </row>
-    <row r="69" spans="4:5" x14ac:dyDescent="0.2">
+    <row r="69" spans="3:5" x14ac:dyDescent="0.2">
       <c r="D69" t="s">
         <v>253</v>
       </c>
@@ -3695,22 +3704,22 @@
         <v>248</v>
       </c>
     </row>
-    <row r="70" spans="4:5" x14ac:dyDescent="0.2">
+    <row r="70" spans="3:5" x14ac:dyDescent="0.2">
       <c r="D70" t="s">
         <v>254</v>
       </c>
     </row>
-    <row r="71" spans="4:5" x14ac:dyDescent="0.2">
+    <row r="71" spans="3:5" x14ac:dyDescent="0.2">
       <c r="D71" t="s">
         <v>255</v>
       </c>
     </row>
-    <row r="72" spans="4:5" x14ac:dyDescent="0.2">
+    <row r="72" spans="3:5" x14ac:dyDescent="0.2">
       <c r="D72" t="s">
         <v>256</v>
       </c>
     </row>
-    <row r="73" spans="4:5" x14ac:dyDescent="0.2">
+    <row r="73" spans="3:5" x14ac:dyDescent="0.2">
       <c r="D73" t="s">
         <v>257</v>
       </c>
@@ -3718,14 +3727,35 @@
         <v>248</v>
       </c>
     </row>
-    <row r="74" spans="4:5" x14ac:dyDescent="0.2">
+    <row r="74" spans="3:5" x14ac:dyDescent="0.2">
       <c r="D74" t="s">
         <v>258</v>
       </c>
     </row>
-    <row r="75" spans="4:5" ht="32" x14ac:dyDescent="0.2">
+    <row r="75" spans="3:5" ht="32" x14ac:dyDescent="0.2">
       <c r="D75" s="7" t="s">
         <v>259</v>
+      </c>
+    </row>
+    <row r="77" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="C77" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="78" spans="3:5" ht="16" x14ac:dyDescent="0.2">
+      <c r="D78" s="7" t="s">
+        <v>296</v>
+      </c>
+      <c r="E78" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="79" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="D79" t="s">
+        <v>295</v>
+      </c>
+      <c r="E79" s="2" t="s">
+        <v>15</v>
       </c>
     </row>
   </sheetData>
@@ -3737,7 +3767,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FB9ABC91-AC07-7449-9663-5AC028EFD06D}">
   <dimension ref="A1:F57"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A29" zoomScale="123" workbookViewId="0">
+    <sheetView topLeftCell="A29" zoomScale="123" workbookViewId="0">
       <selection activeCell="E53" sqref="E53"/>
     </sheetView>
   </sheetViews>

--- a/study_notes_Pluralsight.xlsx
+++ b/study_notes_Pluralsight.xlsx
@@ -1,9 +1,9 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10323"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10411"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1BADCA2A-9AB7-8147-8980-001506C24DA1}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{21976593-C838-7346-A814-F2D61AF9C3EC}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="6440" yWindow="2100" windowWidth="25800" windowHeight="16840" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="571" uniqueCount="297">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="581" uniqueCount="305">
   <si>
     <t>Path:</t>
   </si>
@@ -923,6 +923,30 @@
   </si>
   <si>
     <t>A Better CSS: LESS and SASS</t>
+  </si>
+  <si>
+    <t>12. GraphQL API's with Apollo</t>
+  </si>
+  <si>
+    <t>GraphQL: The Big Picture</t>
+  </si>
+  <si>
+    <t>Building a GraphQL API with Apollo Server</t>
+  </si>
+  <si>
+    <t>Consuming a GraphQL API with Apollo Client and React</t>
+  </si>
+  <si>
+    <t>Event Driven Updates with Apollo Subscriptions</t>
+  </si>
+  <si>
+    <t>Apollo: Performance Management Playbook</t>
+  </si>
+  <si>
+    <t>Securing a GraphQL API with Apollo</t>
+  </si>
+  <si>
+    <t>Testing Apollo</t>
   </si>
 </sst>
 </file>
@@ -3350,17 +3374,17 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9D1D9DD3-45DB-954C-B749-4F3B65D055A7}">
-  <dimension ref="A2:F79"/>
+  <dimension ref="A2:F89"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A48" zoomScale="109" workbookViewId="0">
-      <selection activeCell="E78" sqref="E78"/>
+    <sheetView tabSelected="1" topLeftCell="A57" zoomScale="109" workbookViewId="0">
+      <selection activeCell="G82" sqref="G82"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="6.1640625" customWidth="1"/>
     <col min="2" max="2" width="14.6640625" customWidth="1"/>
-    <col min="3" max="3" width="19.33203125" customWidth="1"/>
+    <col min="3" max="3" width="25.1640625" customWidth="1"/>
     <col min="4" max="4" width="50.33203125" customWidth="1"/>
     <col min="5" max="5" width="17.5" customWidth="1"/>
     <col min="6" max="6" width="7.5" style="6" customWidth="1"/>
@@ -3756,6 +3780,52 @@
       </c>
       <c r="E79" s="2" t="s">
         <v>15</v>
+      </c>
+    </row>
+    <row r="82" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="C82" t="s">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="83" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="D83" t="s">
+        <v>298</v>
+      </c>
+      <c r="E83" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="84" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="D84" t="s">
+        <v>299</v>
+      </c>
+      <c r="E84" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="85" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="D85" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="86" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="D86" t="s">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="87" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="D87" t="s">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="88" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="D88" t="s">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="89" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="D89" t="s">
+        <v>304</v>
       </c>
     </row>
   </sheetData>

--- a/study_notes_Pluralsight.xlsx
+++ b/study_notes_Pluralsight.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10411"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10912"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{21976593-C838-7346-A814-F2D61AF9C3EC}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A6E98BB9-FDA3-A042-B030-12823BA6C263}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="6440" yWindow="2100" windowWidth="25800" windowHeight="16840" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="6440" yWindow="2100" windowWidth="25800" windowHeight="16840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Frontend Dev" sheetId="1" r:id="rId1"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="581" uniqueCount="305">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="587" uniqueCount="308">
   <si>
     <t>Path:</t>
   </si>
@@ -294,15 +294,6 @@
   </si>
   <si>
     <t>(5) Angular Reactive Forms</t>
-  </si>
-  <si>
-    <t>(6) Angular NgRx: Getting Started</t>
-  </si>
-  <si>
-    <t>(7) Angular HTTP Communication</t>
-  </si>
-  <si>
-    <t>(8) Angular Services</t>
   </si>
   <si>
     <t>(1) Angular Best Practices</t>
@@ -947,6 +938,24 @@
   </si>
   <si>
     <t>Testing Apollo</t>
+  </si>
+  <si>
+    <t>(6) RxJS in Angular: Reactive Development</t>
+  </si>
+  <si>
+    <t>(7) Angular NgRx: Getting Started</t>
+  </si>
+  <si>
+    <t>(8) Angular HTTP Communication</t>
+  </si>
+  <si>
+    <t>(9) Angular Services</t>
+  </si>
+  <si>
+    <t>(5) Styling Angular Applications</t>
+  </si>
+  <si>
+    <t>(6) Styling Applications with Angular Material</t>
   </si>
 </sst>
 </file>
@@ -1370,10 +1379,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A2:H215"/>
+  <dimension ref="A2:H218"/>
   <sheetViews>
-    <sheetView topLeftCell="A52" zoomScale="118" zoomScaleNormal="110" zoomScalePageLayoutView="85" workbookViewId="0">
-      <selection activeCell="D68" sqref="D68"/>
+    <sheetView tabSelected="1" topLeftCell="A135" zoomScale="118" zoomScaleNormal="110" zoomScalePageLayoutView="85" workbookViewId="0">
+      <selection activeCell="D147" sqref="D147"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -1437,7 +1446,7 @@
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.2">
       <c r="D9" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="E9" s="1" t="s">
         <v>14</v>
@@ -1445,7 +1454,7 @@
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.2">
       <c r="D10" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="E10" s="1" t="s">
         <v>14</v>
@@ -1453,7 +1462,7 @@
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.2">
       <c r="D11" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
       <c r="E11" s="2" t="s">
         <v>15</v>
@@ -1598,7 +1607,7 @@
     </row>
     <row r="42" spans="3:8" x14ac:dyDescent="0.2">
       <c r="D42" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="E42" s="1" t="s">
         <v>14</v>
@@ -1606,7 +1615,7 @@
     </row>
     <row r="43" spans="3:8" x14ac:dyDescent="0.2">
       <c r="D43" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="E43" s="1" t="s">
         <v>14</v>
@@ -1614,7 +1623,7 @@
     </row>
     <row r="44" spans="3:8" x14ac:dyDescent="0.2">
       <c r="D44" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="E44" s="1" t="s">
         <v>14</v>
@@ -1622,7 +1631,7 @@
     </row>
     <row r="45" spans="3:8" x14ac:dyDescent="0.2">
       <c r="D45" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="E45" s="1" t="s">
         <v>14</v>
@@ -1630,7 +1639,7 @@
     </row>
     <row r="46" spans="3:8" x14ac:dyDescent="0.2">
       <c r="D46" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="E46" s="1" t="s">
         <v>14</v>
@@ -1714,7 +1723,7 @@
     </row>
     <row r="62" spans="3:5" x14ac:dyDescent="0.2">
       <c r="D62" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="E62" s="1" t="s">
         <v>14</v>
@@ -1722,7 +1731,7 @@
     </row>
     <row r="63" spans="3:5" x14ac:dyDescent="0.2">
       <c r="D63" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="E63" s="1" t="s">
         <v>14</v>
@@ -1730,7 +1739,7 @@
     </row>
     <row r="64" spans="3:5" x14ac:dyDescent="0.2">
       <c r="D64" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="E64" s="1" t="s">
         <v>14</v>
@@ -1738,7 +1747,7 @@
     </row>
     <row r="65" spans="3:5" x14ac:dyDescent="0.2">
       <c r="D65" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="E65" s="1" t="s">
         <v>14</v>
@@ -1913,7 +1922,7 @@
     </row>
     <row r="95" spans="4:7" x14ac:dyDescent="0.2">
       <c r="D95" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="E95" s="2" t="s">
         <v>15</v>
@@ -1921,7 +1930,7 @@
     </row>
     <row r="96" spans="4:7" x14ac:dyDescent="0.2">
       <c r="D96" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="E96" s="1" t="s">
         <v>14</v>
@@ -1939,7 +1948,7 @@
     </row>
     <row r="101" spans="3:5" x14ac:dyDescent="0.2">
       <c r="D101" t="s">
-        <v>181</v>
+        <v>178</v>
       </c>
       <c r="E101" s="1" t="s">
         <v>14</v>
@@ -1947,7 +1956,7 @@
     </row>
     <row r="102" spans="3:5" x14ac:dyDescent="0.2">
       <c r="D102" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
       <c r="E102" s="2" t="s">
         <v>15</v>
@@ -1955,7 +1964,7 @@
     </row>
     <row r="103" spans="3:5" x14ac:dyDescent="0.2">
       <c r="D103" t="s">
-        <v>183</v>
+        <v>180</v>
       </c>
       <c r="E103" s="1" t="s">
         <v>14</v>
@@ -1963,7 +1972,7 @@
     </row>
     <row r="104" spans="3:5" x14ac:dyDescent="0.2">
       <c r="D104" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="E104" s="2" t="s">
         <v>15</v>
@@ -1971,7 +1980,7 @@
     </row>
     <row r="105" spans="3:5" x14ac:dyDescent="0.2">
       <c r="D105" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
     </row>
     <row r="107" spans="3:5" x14ac:dyDescent="0.2">
@@ -2009,17 +2018,17 @@
     </row>
     <row r="114" spans="3:5" x14ac:dyDescent="0.2">
       <c r="D114" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
     </row>
     <row r="115" spans="3:5" x14ac:dyDescent="0.2">
       <c r="D115" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
     </row>
     <row r="116" spans="3:5" x14ac:dyDescent="0.2">
       <c r="D116" t="s">
-        <v>168</v>
+        <v>165</v>
       </c>
     </row>
     <row r="119" spans="3:5" x14ac:dyDescent="0.2">
@@ -2034,7 +2043,7 @@
     </row>
     <row r="121" spans="3:5" x14ac:dyDescent="0.2">
       <c r="D121" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="E121" s="2" t="s">
         <v>15</v>
@@ -2042,7 +2051,7 @@
     </row>
     <row r="122" spans="3:5" x14ac:dyDescent="0.2">
       <c r="D122" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="E122" s="1" t="s">
         <v>14</v>
@@ -2050,7 +2059,7 @@
     </row>
     <row r="123" spans="3:5" x14ac:dyDescent="0.2">
       <c r="D123" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="E123" s="2" t="s">
         <v>15</v>
@@ -2063,27 +2072,27 @@
     </row>
     <row r="126" spans="3:5" x14ac:dyDescent="0.2">
       <c r="D126" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
     </row>
     <row r="127" spans="3:5" x14ac:dyDescent="0.2">
       <c r="D127" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
     </row>
     <row r="128" spans="3:5" x14ac:dyDescent="0.2">
       <c r="D128" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
     </row>
     <row r="129" spans="3:5" x14ac:dyDescent="0.2">
       <c r="D129" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
     </row>
     <row r="130" spans="3:5" x14ac:dyDescent="0.2">
       <c r="D130" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
     </row>
     <row r="132" spans="3:5" x14ac:dyDescent="0.2">
@@ -2093,12 +2102,12 @@
     </row>
     <row r="133" spans="3:5" x14ac:dyDescent="0.2">
       <c r="D133" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
     </row>
     <row r="134" spans="3:5" x14ac:dyDescent="0.2">
       <c r="D134" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="E134" s="3" t="s">
         <v>58</v>
@@ -2106,7 +2115,7 @@
     </row>
     <row r="135" spans="3:5" x14ac:dyDescent="0.2">
       <c r="D135" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
     </row>
     <row r="138" spans="3:5" x14ac:dyDescent="0.2">
@@ -2151,225 +2160,225 @@
         <v>14</v>
       </c>
     </row>
-    <row r="145" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="144" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="D144" t="s">
+        <v>306</v>
+      </c>
+      <c r="E144" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="145" spans="4:5" x14ac:dyDescent="0.2">
       <c r="D145" t="s">
+        <v>307</v>
+      </c>
+      <c r="E145" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="147" spans="4:5" x14ac:dyDescent="0.2">
+      <c r="D147" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="146" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="D146" t="s">
+    <row r="148" spans="4:5" x14ac:dyDescent="0.2">
+      <c r="D148" t="s">
         <v>83</v>
       </c>
-      <c r="E146" s="2" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="147" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="D147" t="s">
+      <c r="E148" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="149" spans="4:5" x14ac:dyDescent="0.2">
+      <c r="D149" t="s">
         <v>84</v>
       </c>
-      <c r="E147" s="2" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="148" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="D148" t="s">
+      <c r="E149" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="150" spans="4:5" x14ac:dyDescent="0.2">
+      <c r="D150" t="s">
         <v>85</v>
       </c>
-      <c r="E148" s="2" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="149" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="D149" t="s">
+      <c r="E150" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="151" spans="4:5" x14ac:dyDescent="0.2">
+      <c r="D151" t="s">
         <v>86</v>
       </c>
-      <c r="E149" s="2" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="150" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="D150" t="s">
+      <c r="E151" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="152" spans="4:5" x14ac:dyDescent="0.2">
+      <c r="D152" t="s">
         <v>87</v>
       </c>
-      <c r="E150" s="1" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="151" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="D151" t="s">
+      <c r="E152" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="153" spans="4:5" ht="16" x14ac:dyDescent="0.2">
+      <c r="D153" s="7" t="s">
+        <v>302</v>
+      </c>
+      <c r="E153" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="154" spans="4:5" x14ac:dyDescent="0.2">
+      <c r="D154" t="s">
+        <v>303</v>
+      </c>
+      <c r="E154" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="155" spans="4:5" x14ac:dyDescent="0.2">
+      <c r="D155" t="s">
+        <v>304</v>
+      </c>
+      <c r="E155" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="156" spans="4:5" x14ac:dyDescent="0.2">
+      <c r="D156" t="s">
+        <v>305</v>
+      </c>
+      <c r="E156" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="158" spans="4:5" x14ac:dyDescent="0.2">
+      <c r="D158" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="159" spans="4:5" x14ac:dyDescent="0.2">
+      <c r="D159" t="s">
         <v>88</v>
       </c>
-      <c r="E151" s="2" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="152" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="D152" t="s">
+      <c r="E159" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="160" spans="4:5" x14ac:dyDescent="0.2">
+      <c r="D160" t="s">
+        <v>166</v>
+      </c>
+      <c r="E160" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="163" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B163" s="4"/>
+      <c r="C163" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="164" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="D164" t="s">
         <v>89</v>
       </c>
-      <c r="E152" s="1" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="153" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="D153" t="s">
-        <v>90</v>
-      </c>
-      <c r="E153" s="1" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="155" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="D155" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="156" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="D156" t="s">
-        <v>91</v>
-      </c>
-      <c r="E156" s="2" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="157" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="D157" t="s">
-        <v>169</v>
-      </c>
-      <c r="E157" s="2" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="160" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B160" s="4"/>
-      <c r="C160" t="s">
+      <c r="E164" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="165" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="D165" t="s">
+        <v>212</v>
+      </c>
+      <c r="E165" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="166" spans="2:5" ht="16" x14ac:dyDescent="0.2">
+      <c r="D166" s="7" t="s">
+        <v>213</v>
+      </c>
+      <c r="E166" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="167" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="D167" t="s">
         <v>214</v>
       </c>
-    </row>
-    <row r="161" spans="4:5" x14ac:dyDescent="0.2">
-      <c r="D161" t="s">
-        <v>92</v>
-      </c>
-      <c r="E161" s="1" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="162" spans="4:5" x14ac:dyDescent="0.2">
-      <c r="D162" t="s">
+      <c r="E167" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="168" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="D168" t="s">
         <v>215</v>
       </c>
-      <c r="E162" s="1" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="163" spans="4:5" ht="16" x14ac:dyDescent="0.2">
-      <c r="D163" s="7" t="s">
+      <c r="E168" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="169" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="D169" t="s">
         <v>216</v>
       </c>
-      <c r="E163" s="1" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="164" spans="4:5" x14ac:dyDescent="0.2">
-      <c r="D164" t="s">
+      <c r="E169" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="170" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="D170" t="s">
         <v>217</v>
       </c>
-      <c r="E164" s="1" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="165" spans="4:5" x14ac:dyDescent="0.2">
-      <c r="D165" t="s">
+      <c r="E170" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="171" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="D171" t="s">
         <v>218</v>
       </c>
-      <c r="E165" s="1" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="166" spans="4:5" x14ac:dyDescent="0.2">
-      <c r="D166" t="s">
+      <c r="E171" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="172" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="D172" t="s">
         <v>219</v>
       </c>
-      <c r="E166" s="1" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="167" spans="4:5" x14ac:dyDescent="0.2">
-      <c r="D167" t="s">
+      <c r="E172" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="173" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="D173" t="s">
         <v>220</v>
       </c>
-      <c r="E167" s="1" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="168" spans="4:5" x14ac:dyDescent="0.2">
-      <c r="D168" t="s">
+      <c r="E173" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="174" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="D174" t="s">
         <v>221</v>
       </c>
-      <c r="E168" s="1" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="169" spans="4:5" x14ac:dyDescent="0.2">
-      <c r="D169" t="s">
+      <c r="E174" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="175" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="D175" t="s">
         <v>222</v>
       </c>
-      <c r="E169" s="1" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="170" spans="4:5" x14ac:dyDescent="0.2">
-      <c r="D170" t="s">
+      <c r="E175" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="176" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="D176" t="s">
         <v>223</v>
-      </c>
-      <c r="E170" s="1" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="171" spans="4:5" x14ac:dyDescent="0.2">
-      <c r="D171" t="s">
-        <v>224</v>
-      </c>
-      <c r="E171" s="1" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="172" spans="4:5" x14ac:dyDescent="0.2">
-      <c r="D172" t="s">
-        <v>225</v>
-      </c>
-      <c r="E172" s="2" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="173" spans="4:5" x14ac:dyDescent="0.2">
-      <c r="D173" t="s">
-        <v>226</v>
-      </c>
-      <c r="E173" s="2" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="174" spans="4:5" x14ac:dyDescent="0.2">
-      <c r="D174" t="s">
-        <v>227</v>
-      </c>
-      <c r="E174" s="1" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="175" spans="4:5" x14ac:dyDescent="0.2">
-      <c r="D175" t="s">
-        <v>228</v>
-      </c>
-      <c r="E175" s="2" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="176" spans="4:5" x14ac:dyDescent="0.2">
-      <c r="D176" t="s">
-        <v>229</v>
       </c>
       <c r="E176" s="2" t="s">
         <v>15</v>
@@ -2377,97 +2386,97 @@
     </row>
     <row r="177" spans="3:5" x14ac:dyDescent="0.2">
       <c r="D177" t="s">
-        <v>230</v>
-      </c>
-      <c r="E177" s="2" t="s">
-        <v>15</v>
+        <v>224</v>
+      </c>
+      <c r="E177" s="1" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="178" spans="3:5" x14ac:dyDescent="0.2">
       <c r="D178" t="s">
-        <v>231</v>
+        <v>225</v>
       </c>
       <c r="E178" s="2" t="s">
         <v>15</v>
       </c>
     </row>
+    <row r="179" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="D179" t="s">
+        <v>226</v>
+      </c>
+      <c r="E179" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="180" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="D180" t="s">
+        <v>227</v>
+      </c>
+      <c r="E180" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
     <row r="181" spans="3:5" x14ac:dyDescent="0.2">
-      <c r="C181" t="s">
-        <v>244</v>
-      </c>
-    </row>
-    <row r="182" spans="3:5" x14ac:dyDescent="0.2">
-      <c r="D182" t="s">
-        <v>245</v>
-      </c>
-      <c r="E182" s="1" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="183" spans="3:5" x14ac:dyDescent="0.2">
-      <c r="D183" t="s">
-        <v>261</v>
-      </c>
-      <c r="E183" s="1" t="s">
-        <v>14</v>
+      <c r="D181" t="s">
+        <v>228</v>
+      </c>
+      <c r="E181" s="2" t="s">
+        <v>15</v>
       </c>
     </row>
     <row r="184" spans="3:5" x14ac:dyDescent="0.2">
-      <c r="D184" t="s">
-        <v>262</v>
-      </c>
-      <c r="E184" s="1" t="s">
-        <v>14</v>
+      <c r="C184" t="s">
+        <v>241</v>
       </c>
     </row>
     <row r="185" spans="3:5" x14ac:dyDescent="0.2">
       <c r="D185" t="s">
-        <v>263</v>
-      </c>
-      <c r="E185" s="2" t="s">
-        <v>15</v>
+        <v>242</v>
+      </c>
+      <c r="E185" s="1" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="186" spans="3:5" x14ac:dyDescent="0.2">
       <c r="D186" t="s">
-        <v>276</v>
-      </c>
-      <c r="E186" s="2" t="s">
+        <v>258</v>
+      </c>
+      <c r="E186" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="187" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="D187" t="s">
+        <v>259</v>
+      </c>
+      <c r="E187" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="188" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="D188" t="s">
+        <v>260</v>
+      </c>
+      <c r="E188" s="2" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="189" spans="3:5" x14ac:dyDescent="0.2">
-      <c r="C189" t="s">
-        <v>264</v>
-      </c>
-    </row>
-    <row r="190" spans="3:5" x14ac:dyDescent="0.2">
-      <c r="D190" t="s">
-        <v>265</v>
-      </c>
-      <c r="E190" s="1" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="191" spans="3:5" x14ac:dyDescent="0.2">
-      <c r="D191" t="s">
-        <v>266</v>
-      </c>
-      <c r="E191" s="1" t="s">
-        <v>14</v>
+      <c r="D189" t="s">
+        <v>273</v>
+      </c>
+      <c r="E189" s="2" t="s">
+        <v>15</v>
       </c>
     </row>
     <row r="192" spans="3:5" x14ac:dyDescent="0.2">
-      <c r="D192" t="s">
-        <v>267</v>
-      </c>
-      <c r="E192" s="1" t="s">
-        <v>14</v>
+      <c r="C192" t="s">
+        <v>261</v>
       </c>
     </row>
     <row r="193" spans="3:5" x14ac:dyDescent="0.2">
       <c r="D193" t="s">
-        <v>268</v>
+        <v>262</v>
       </c>
       <c r="E193" s="1" t="s">
         <v>14</v>
@@ -2475,7 +2484,7 @@
     </row>
     <row r="194" spans="3:5" x14ac:dyDescent="0.2">
       <c r="D194" t="s">
-        <v>269</v>
+        <v>263</v>
       </c>
       <c r="E194" s="1" t="s">
         <v>14</v>
@@ -2483,7 +2492,7 @@
     </row>
     <row r="195" spans="3:5" x14ac:dyDescent="0.2">
       <c r="D195" t="s">
-        <v>270</v>
+        <v>264</v>
       </c>
       <c r="E195" s="1" t="s">
         <v>14</v>
@@ -2491,15 +2500,15 @@
     </row>
     <row r="196" spans="3:5" x14ac:dyDescent="0.2">
       <c r="D196" t="s">
-        <v>271</v>
-      </c>
-      <c r="E196" s="2" t="s">
-        <v>15</v>
+        <v>265</v>
+      </c>
+      <c r="E196" s="1" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="197" spans="3:5" x14ac:dyDescent="0.2">
       <c r="D197" t="s">
-        <v>272</v>
+        <v>266</v>
       </c>
       <c r="E197" s="1" t="s">
         <v>14</v>
@@ -2507,101 +2516,125 @@
     </row>
     <row r="198" spans="3:5" x14ac:dyDescent="0.2">
       <c r="D198" t="s">
-        <v>273</v>
-      </c>
-      <c r="E198" s="2" t="s">
-        <v>15</v>
+        <v>267</v>
+      </c>
+      <c r="E198" s="1" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="199" spans="3:5" x14ac:dyDescent="0.2">
       <c r="D199" t="s">
-        <v>274</v>
+        <v>268</v>
       </c>
       <c r="E199" s="2" t="s">
         <v>15</v>
       </c>
     </row>
+    <row r="200" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="D200" t="s">
+        <v>269</v>
+      </c>
+      <c r="E200" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="201" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="D201" t="s">
+        <v>270</v>
+      </c>
+      <c r="E201" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
     <row r="202" spans="3:5" x14ac:dyDescent="0.2">
-      <c r="C202" t="s">
-        <v>275</v>
-      </c>
-    </row>
-    <row r="203" spans="3:5" x14ac:dyDescent="0.2">
-      <c r="D203" t="s">
+      <c r="D202" t="s">
+        <v>271</v>
+      </c>
+      <c r="E202" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="205" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="C205" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="206" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="D206" t="s">
         <v>2</v>
-      </c>
-    </row>
-    <row r="204" spans="3:5" x14ac:dyDescent="0.2">
-      <c r="D204" t="s">
-        <v>277</v>
-      </c>
-      <c r="E204" s="1" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="205" spans="3:5" x14ac:dyDescent="0.2">
-      <c r="D205" t="s">
-        <v>278</v>
-      </c>
-      <c r="E205" s="1" t="s">
-        <v>14</v>
       </c>
     </row>
     <row r="207" spans="3:5" x14ac:dyDescent="0.2">
       <c r="D207" t="s">
-        <v>6</v>
+        <v>274</v>
+      </c>
+      <c r="E207" s="1" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="208" spans="3:5" x14ac:dyDescent="0.2">
       <c r="D208" t="s">
-        <v>279</v>
+        <v>275</v>
       </c>
       <c r="E208" s="1" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="209" spans="4:5" x14ac:dyDescent="0.2">
-      <c r="D209" t="s">
-        <v>280</v>
-      </c>
-      <c r="E209" s="1" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="210" spans="4:5" x14ac:dyDescent="0.2">
       <c r="D210" t="s">
-        <v>281</v>
-      </c>
-      <c r="E210" s="2" t="s">
-        <v>15</v>
+        <v>6</v>
       </c>
     </row>
     <row r="211" spans="4:5" x14ac:dyDescent="0.2">
       <c r="D211" t="s">
-        <v>282</v>
-      </c>
-      <c r="E211" s="2" t="s">
-        <v>15</v>
+        <v>276</v>
+      </c>
+      <c r="E211" s="1" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="212" spans="4:5" x14ac:dyDescent="0.2">
       <c r="D212" t="s">
-        <v>283</v>
+        <v>277</v>
+      </c>
+      <c r="E212" s="1" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="213" spans="4:5" x14ac:dyDescent="0.2">
       <c r="D213" t="s">
-        <v>284</v>
+        <v>278</v>
+      </c>
+      <c r="E213" s="2" t="s">
+        <v>15</v>
       </c>
     </row>
     <row r="214" spans="4:5" x14ac:dyDescent="0.2">
       <c r="D214" t="s">
-        <v>285</v>
+        <v>279</v>
+      </c>
+      <c r="E214" s="2" t="s">
+        <v>15</v>
       </c>
     </row>
     <row r="215" spans="4:5" x14ac:dyDescent="0.2">
       <c r="D215" t="s">
-        <v>286</v>
+        <v>280</v>
+      </c>
+    </row>
+    <row r="216" spans="4:5" x14ac:dyDescent="0.2">
+      <c r="D216" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="217" spans="4:5" x14ac:dyDescent="0.2">
+      <c r="D217" t="s">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="218" spans="4:5" x14ac:dyDescent="0.2">
+      <c r="D218" t="s">
+        <v>283</v>
       </c>
     </row>
   </sheetData>
@@ -2650,7 +2683,7 @@
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.2">
       <c r="D6" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="E6" s="1" t="s">
         <v>14</v>
@@ -2658,7 +2691,7 @@
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.2">
       <c r="D7" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="E7" s="2" t="s">
         <v>15</v>
@@ -2666,22 +2699,22 @@
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.2">
       <c r="D8" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.2">
       <c r="D9" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.2">
       <c r="D10" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.2">
       <c r="D11" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.2">
@@ -2691,22 +2724,22 @@
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.2">
       <c r="D14" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.2">
       <c r="D15" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.2">
       <c r="D16" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
     </row>
     <row r="17" spans="3:5" x14ac:dyDescent="0.2">
       <c r="D17" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
     </row>
     <row r="19" spans="3:5" x14ac:dyDescent="0.2">
@@ -2744,7 +2777,7 @@
     </row>
     <row r="27" spans="3:5" x14ac:dyDescent="0.2">
       <c r="C27" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
     </row>
     <row r="28" spans="3:5" x14ac:dyDescent="0.2">
@@ -2754,7 +2787,7 @@
     </row>
     <row r="29" spans="3:5" x14ac:dyDescent="0.2">
       <c r="D29" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="E29" s="2" t="s">
         <v>15</v>
@@ -2767,7 +2800,7 @@
     </row>
     <row r="32" spans="3:5" x14ac:dyDescent="0.2">
       <c r="D32" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
     </row>
     <row r="34" spans="3:5" x14ac:dyDescent="0.2">
@@ -2777,12 +2810,12 @@
     </row>
     <row r="35" spans="3:5" x14ac:dyDescent="0.2">
       <c r="D35" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
     </row>
     <row r="38" spans="3:5" ht="16" x14ac:dyDescent="0.2">
       <c r="C38" s="7" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
     </row>
     <row r="39" spans="3:5" x14ac:dyDescent="0.2">
@@ -2792,7 +2825,7 @@
     </row>
     <row r="40" spans="3:5" x14ac:dyDescent="0.2">
       <c r="D40" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
       <c r="E40" s="1" t="s">
         <v>14</v>
@@ -2800,7 +2833,7 @@
     </row>
     <row r="41" spans="3:5" x14ac:dyDescent="0.2">
       <c r="D41" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="E41" s="2" t="s">
         <v>15</v>
@@ -2808,7 +2841,7 @@
     </row>
     <row r="42" spans="3:5" x14ac:dyDescent="0.2">
       <c r="D42" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
       <c r="E42" s="2" t="s">
         <v>15</v>
@@ -2821,22 +2854,22 @@
     </row>
     <row r="45" spans="3:5" x14ac:dyDescent="0.2">
       <c r="D45" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
     </row>
     <row r="46" spans="3:5" x14ac:dyDescent="0.2">
       <c r="D46" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
     </row>
     <row r="47" spans="3:5" x14ac:dyDescent="0.2">
       <c r="D47" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
     </row>
     <row r="48" spans="3:5" x14ac:dyDescent="0.2">
       <c r="D48" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
     </row>
     <row r="50" spans="3:5" x14ac:dyDescent="0.2">
@@ -2846,17 +2879,17 @@
     </row>
     <row r="51" spans="3:5" x14ac:dyDescent="0.2">
       <c r="D51" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
     </row>
     <row r="52" spans="3:5" x14ac:dyDescent="0.2">
       <c r="D52" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
     </row>
     <row r="55" spans="3:5" x14ac:dyDescent="0.2">
       <c r="C55" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
     </row>
     <row r="56" spans="3:5" x14ac:dyDescent="0.2">
@@ -2866,7 +2899,7 @@
     </row>
     <row r="57" spans="3:5" x14ac:dyDescent="0.2">
       <c r="D57" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="E57" s="1" t="s">
         <v>14</v>
@@ -2874,17 +2907,17 @@
     </row>
     <row r="58" spans="3:5" x14ac:dyDescent="0.2">
       <c r="D58" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
     </row>
     <row r="59" spans="3:5" x14ac:dyDescent="0.2">
       <c r="D59" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
     </row>
     <row r="61" spans="3:5" x14ac:dyDescent="0.2">
       <c r="D61" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="E61" s="2" t="s">
         <v>15</v>
@@ -2892,7 +2925,7 @@
     </row>
     <row r="62" spans="3:5" x14ac:dyDescent="0.2">
       <c r="D62" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="E62" s="1" t="s">
         <v>14</v>
@@ -2900,7 +2933,7 @@
     </row>
     <row r="63" spans="3:5" x14ac:dyDescent="0.2">
       <c r="D63" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="E63" s="2" t="s">
         <v>15</v>
@@ -2913,42 +2946,42 @@
     </row>
     <row r="66" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D66" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
     </row>
     <row r="67" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D67" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
     </row>
     <row r="68" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D68" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
     </row>
     <row r="69" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D69" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
     </row>
     <row r="70" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D70" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
     </row>
     <row r="72" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D72" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
     </row>
     <row r="73" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D73" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
     </row>
     <row r="74" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D74" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
     </row>
     <row r="77" spans="4:4" x14ac:dyDescent="0.2">
@@ -2958,17 +2991,17 @@
     </row>
     <row r="78" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D78" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
     </row>
     <row r="79" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D79" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
     </row>
     <row r="80" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D80" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
     </row>
     <row r="85" spans="2:4" x14ac:dyDescent="0.2">
@@ -2983,7 +3016,7 @@
     </row>
     <row r="87" spans="2:4" x14ac:dyDescent="0.2">
       <c r="D87" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
     </row>
   </sheetData>
@@ -3016,7 +3049,7 @@
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B3" s="4" t="s">
-        <v>200</v>
+        <v>197</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.2">
@@ -3031,7 +3064,7 @@
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.2">
       <c r="D6" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="E6" s="1" t="s">
         <v>14</v>
@@ -3039,7 +3072,7 @@
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.2">
       <c r="D7" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="E7" s="2" t="s">
         <v>15</v>
@@ -3047,22 +3080,22 @@
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.2">
       <c r="D8" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.2">
       <c r="D9" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.2">
       <c r="D10" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.2">
       <c r="D11" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.2">
@@ -3072,22 +3105,22 @@
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.2">
       <c r="D14" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.2">
       <c r="D15" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.2">
       <c r="D16" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
     </row>
     <row r="17" spans="3:5" x14ac:dyDescent="0.2">
       <c r="D17" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
     </row>
     <row r="19" spans="3:5" x14ac:dyDescent="0.2">
@@ -3125,7 +3158,7 @@
     </row>
     <row r="27" spans="3:5" x14ac:dyDescent="0.2">
       <c r="C27" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
     </row>
     <row r="28" spans="3:5" x14ac:dyDescent="0.2">
@@ -3135,7 +3168,7 @@
     </row>
     <row r="29" spans="3:5" x14ac:dyDescent="0.2">
       <c r="D29" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="E29" s="2" t="s">
         <v>15</v>
@@ -3148,7 +3181,7 @@
     </row>
     <row r="32" spans="3:5" x14ac:dyDescent="0.2">
       <c r="D32" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
     </row>
     <row r="34" spans="3:5" x14ac:dyDescent="0.2">
@@ -3158,12 +3191,12 @@
     </row>
     <row r="35" spans="3:5" x14ac:dyDescent="0.2">
       <c r="D35" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
     </row>
     <row r="38" spans="3:5" ht="16" x14ac:dyDescent="0.2">
       <c r="C38" s="7" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
     </row>
     <row r="39" spans="3:5" x14ac:dyDescent="0.2">
@@ -3173,7 +3206,7 @@
     </row>
     <row r="40" spans="3:5" x14ac:dyDescent="0.2">
       <c r="D40" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
       <c r="E40" s="1" t="s">
         <v>14</v>
@@ -3181,7 +3214,7 @@
     </row>
     <row r="41" spans="3:5" x14ac:dyDescent="0.2">
       <c r="D41" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="E41" s="2" t="s">
         <v>15</v>
@@ -3189,7 +3222,7 @@
     </row>
     <row r="42" spans="3:5" x14ac:dyDescent="0.2">
       <c r="D42" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
       <c r="E42" s="2" t="s">
         <v>15</v>
@@ -3202,22 +3235,22 @@
     </row>
     <row r="45" spans="3:5" x14ac:dyDescent="0.2">
       <c r="D45" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
     </row>
     <row r="46" spans="3:5" x14ac:dyDescent="0.2">
       <c r="D46" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
     </row>
     <row r="47" spans="3:5" x14ac:dyDescent="0.2">
       <c r="D47" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
     </row>
     <row r="48" spans="3:5" x14ac:dyDescent="0.2">
       <c r="D48" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
     </row>
     <row r="50" spans="3:5" x14ac:dyDescent="0.2">
@@ -3227,17 +3260,17 @@
     </row>
     <row r="51" spans="3:5" x14ac:dyDescent="0.2">
       <c r="D51" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
     </row>
     <row r="52" spans="3:5" x14ac:dyDescent="0.2">
       <c r="D52" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
     </row>
     <row r="55" spans="3:5" x14ac:dyDescent="0.2">
       <c r="C55" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
     </row>
     <row r="56" spans="3:5" x14ac:dyDescent="0.2">
@@ -3247,7 +3280,7 @@
     </row>
     <row r="57" spans="3:5" x14ac:dyDescent="0.2">
       <c r="D57" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="E57" s="1" t="s">
         <v>14</v>
@@ -3255,17 +3288,17 @@
     </row>
     <row r="58" spans="3:5" x14ac:dyDescent="0.2">
       <c r="D58" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
     </row>
     <row r="59" spans="3:5" x14ac:dyDescent="0.2">
       <c r="D59" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
     </row>
     <row r="61" spans="3:5" x14ac:dyDescent="0.2">
       <c r="D61" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="E61" s="2" t="s">
         <v>15</v>
@@ -3273,7 +3306,7 @@
     </row>
     <row r="62" spans="3:5" x14ac:dyDescent="0.2">
       <c r="D62" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="E62" s="1" t="s">
         <v>14</v>
@@ -3281,7 +3314,7 @@
     </row>
     <row r="63" spans="3:5" x14ac:dyDescent="0.2">
       <c r="D63" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="E63" s="2" t="s">
         <v>15</v>
@@ -3294,42 +3327,42 @@
     </row>
     <row r="66" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D66" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
     </row>
     <row r="67" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D67" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
     </row>
     <row r="68" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D68" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
     </row>
     <row r="69" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D69" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
     </row>
     <row r="70" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D70" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
     </row>
     <row r="72" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D72" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
     </row>
     <row r="73" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D73" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
     </row>
     <row r="74" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D74" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
     </row>
     <row r="77" spans="4:4" x14ac:dyDescent="0.2">
@@ -3339,17 +3372,17 @@
     </row>
     <row r="78" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D78" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
     </row>
     <row r="79" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D79" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
     </row>
     <row r="80" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D80" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
     </row>
     <row r="85" spans="2:4" x14ac:dyDescent="0.2">
@@ -3364,7 +3397,7 @@
     </row>
     <row r="87" spans="2:4" x14ac:dyDescent="0.2">
       <c r="D87" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
     </row>
   </sheetData>
@@ -3376,7 +3409,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9D1D9DD3-45DB-954C-B749-4F3B65D055A7}">
   <dimension ref="A2:F89"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A57" zoomScale="109" workbookViewId="0">
+    <sheetView zoomScale="109" workbookViewId="0">
       <selection activeCell="G82" sqref="G82"/>
     </sheetView>
   </sheetViews>
@@ -3443,7 +3476,7 @@
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.2">
       <c r="D12" t="s">
-        <v>188</v>
+        <v>185</v>
       </c>
       <c r="E12" s="2" t="s">
         <v>15</v>
@@ -3451,7 +3484,7 @@
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.2">
       <c r="D13" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
       <c r="E13" s="2" t="s">
         <v>15</v>
@@ -3459,7 +3492,7 @@
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.2">
       <c r="D14" t="s">
-        <v>243</v>
+        <v>240</v>
       </c>
       <c r="E14" s="2" t="s">
         <v>15</v>
@@ -3488,7 +3521,7 @@
     </row>
     <row r="19" spans="3:5" x14ac:dyDescent="0.2">
       <c r="D19" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="E19" s="2" t="s">
         <v>15</v>
@@ -3496,12 +3529,12 @@
     </row>
     <row r="21" spans="3:5" x14ac:dyDescent="0.2">
       <c r="C21" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
     </row>
     <row r="22" spans="3:5" x14ac:dyDescent="0.2">
       <c r="D22" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="E22" s="1" t="s">
         <v>14</v>
@@ -3509,67 +3542,67 @@
     </row>
     <row r="23" spans="3:5" x14ac:dyDescent="0.2">
       <c r="D23" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
     </row>
     <row r="24" spans="3:5" x14ac:dyDescent="0.2">
       <c r="D24" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
     </row>
     <row r="25" spans="3:5" x14ac:dyDescent="0.2">
       <c r="D25" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
     </row>
     <row r="26" spans="3:5" x14ac:dyDescent="0.2">
       <c r="D26" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
     </row>
     <row r="27" spans="3:5" x14ac:dyDescent="0.2">
       <c r="D27" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
     </row>
     <row r="28" spans="3:5" x14ac:dyDescent="0.2">
       <c r="D28" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
     </row>
     <row r="29" spans="3:5" x14ac:dyDescent="0.2">
       <c r="D29" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
     </row>
     <row r="32" spans="3:5" x14ac:dyDescent="0.2">
       <c r="C32" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
     </row>
     <row r="33" spans="3:5" x14ac:dyDescent="0.2">
       <c r="D33" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
     </row>
     <row r="34" spans="3:5" x14ac:dyDescent="0.2">
       <c r="D34" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
     </row>
     <row r="35" spans="3:5" x14ac:dyDescent="0.2">
       <c r="D35" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
     </row>
     <row r="36" spans="3:5" x14ac:dyDescent="0.2">
       <c r="D36" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
     </row>
     <row r="37" spans="3:5" x14ac:dyDescent="0.2">
       <c r="D37" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="E37" s="1" t="s">
         <v>14</v>
@@ -3577,32 +3610,32 @@
     </row>
     <row r="38" spans="3:5" x14ac:dyDescent="0.2">
       <c r="D38" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
     </row>
     <row r="39" spans="3:5" x14ac:dyDescent="0.2">
       <c r="D39" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
     </row>
     <row r="41" spans="3:5" x14ac:dyDescent="0.2">
       <c r="C41" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
     </row>
     <row r="42" spans="3:5" x14ac:dyDescent="0.2">
       <c r="D42" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
     </row>
     <row r="46" spans="3:5" x14ac:dyDescent="0.2">
       <c r="C46" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
     </row>
     <row r="47" spans="3:5" x14ac:dyDescent="0.2">
       <c r="D47" t="s">
-        <v>190</v>
+        <v>187</v>
       </c>
       <c r="E47" s="1" t="s">
         <v>14</v>
@@ -3610,7 +3643,7 @@
     </row>
     <row r="48" spans="3:5" x14ac:dyDescent="0.2">
       <c r="D48" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="E48" s="1" t="s">
         <v>14</v>
@@ -3618,7 +3651,7 @@
     </row>
     <row r="49" spans="3:5" x14ac:dyDescent="0.2">
       <c r="D49" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
       <c r="E49" s="2" t="s">
         <v>15</v>
@@ -3626,7 +3659,7 @@
     </row>
     <row r="50" spans="3:5" x14ac:dyDescent="0.2">
       <c r="D50" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
       <c r="E50" s="2" t="s">
         <v>15</v>
@@ -3634,27 +3667,27 @@
     </row>
     <row r="51" spans="3:5" x14ac:dyDescent="0.2">
       <c r="D51" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
     </row>
     <row r="52" spans="3:5" x14ac:dyDescent="0.2">
       <c r="D52" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
     </row>
     <row r="53" spans="3:5" ht="32" x14ac:dyDescent="0.2">
       <c r="D53" s="7" t="s">
-        <v>260</v>
+        <v>257</v>
       </c>
     </row>
     <row r="55" spans="3:5" x14ac:dyDescent="0.2">
       <c r="C55" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
     </row>
     <row r="56" spans="3:5" x14ac:dyDescent="0.2">
       <c r="D56" t="s">
-        <v>197</v>
+        <v>194</v>
       </c>
       <c r="E56" s="1" t="s">
         <v>14</v>
@@ -3662,7 +3695,7 @@
     </row>
     <row r="57" spans="3:5" x14ac:dyDescent="0.2">
       <c r="D57" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
       <c r="E57" s="2" t="s">
         <v>15</v>
@@ -3670,12 +3703,12 @@
     </row>
     <row r="59" spans="3:5" x14ac:dyDescent="0.2">
       <c r="C59" t="s">
-        <v>201</v>
+        <v>198</v>
       </c>
     </row>
     <row r="60" spans="3:5" x14ac:dyDescent="0.2">
       <c r="D60" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
       <c r="E60" s="1" t="s">
         <v>14</v>
@@ -3683,28 +3716,28 @@
     </row>
     <row r="63" spans="3:5" x14ac:dyDescent="0.2">
       <c r="C63" t="s">
-        <v>246</v>
+        <v>243</v>
       </c>
     </row>
     <row r="64" spans="3:5" x14ac:dyDescent="0.2">
       <c r="D64" t="s">
-        <v>247</v>
+        <v>244</v>
       </c>
       <c r="E64" s="8" t="s">
-        <v>248</v>
+        <v>245</v>
       </c>
     </row>
     <row r="65" spans="3:5" x14ac:dyDescent="0.2">
       <c r="D65" t="s">
-        <v>249</v>
+        <v>246</v>
       </c>
       <c r="E65" s="8" t="s">
-        <v>248</v>
+        <v>245</v>
       </c>
     </row>
     <row r="66" spans="3:5" x14ac:dyDescent="0.2">
       <c r="D66" t="s">
-        <v>250</v>
+        <v>247</v>
       </c>
       <c r="E66" s="1" t="s">
         <v>14</v>
@@ -3712,63 +3745,63 @@
     </row>
     <row r="67" spans="3:5" x14ac:dyDescent="0.2">
       <c r="D67" t="s">
-        <v>251</v>
+        <v>248</v>
       </c>
     </row>
     <row r="68" spans="3:5" x14ac:dyDescent="0.2">
       <c r="D68" t="s">
-        <v>252</v>
+        <v>249</v>
       </c>
     </row>
     <row r="69" spans="3:5" x14ac:dyDescent="0.2">
       <c r="D69" t="s">
-        <v>253</v>
+        <v>250</v>
       </c>
       <c r="E69" s="8" t="s">
-        <v>248</v>
+        <v>245</v>
       </c>
     </row>
     <row r="70" spans="3:5" x14ac:dyDescent="0.2">
       <c r="D70" t="s">
-        <v>254</v>
+        <v>251</v>
       </c>
     </row>
     <row r="71" spans="3:5" x14ac:dyDescent="0.2">
       <c r="D71" t="s">
-        <v>255</v>
+        <v>252</v>
       </c>
     </row>
     <row r="72" spans="3:5" x14ac:dyDescent="0.2">
       <c r="D72" t="s">
-        <v>256</v>
+        <v>253</v>
       </c>
     </row>
     <row r="73" spans="3:5" x14ac:dyDescent="0.2">
       <c r="D73" t="s">
-        <v>257</v>
+        <v>254</v>
       </c>
       <c r="E73" s="8" t="s">
-        <v>248</v>
+        <v>245</v>
       </c>
     </row>
     <row r="74" spans="3:5" x14ac:dyDescent="0.2">
       <c r="D74" t="s">
-        <v>258</v>
+        <v>255</v>
       </c>
     </row>
     <row r="75" spans="3:5" ht="32" x14ac:dyDescent="0.2">
       <c r="D75" s="7" t="s">
-        <v>259</v>
+        <v>256</v>
       </c>
     </row>
     <row r="77" spans="3:5" x14ac:dyDescent="0.2">
       <c r="C77" t="s">
-        <v>294</v>
+        <v>291</v>
       </c>
     </row>
     <row r="78" spans="3:5" ht="16" x14ac:dyDescent="0.2">
       <c r="D78" s="7" t="s">
-        <v>296</v>
+        <v>293</v>
       </c>
       <c r="E78" s="2" t="s">
         <v>15</v>
@@ -3776,7 +3809,7 @@
     </row>
     <row r="79" spans="3:5" x14ac:dyDescent="0.2">
       <c r="D79" t="s">
-        <v>295</v>
+        <v>292</v>
       </c>
       <c r="E79" s="2" t="s">
         <v>15</v>
@@ -3784,12 +3817,12 @@
     </row>
     <row r="82" spans="3:5" x14ac:dyDescent="0.2">
       <c r="C82" t="s">
-        <v>297</v>
+        <v>294</v>
       </c>
     </row>
     <row r="83" spans="3:5" x14ac:dyDescent="0.2">
       <c r="D83" t="s">
-        <v>298</v>
+        <v>295</v>
       </c>
       <c r="E83" s="2" t="s">
         <v>15</v>
@@ -3797,7 +3830,7 @@
     </row>
     <row r="84" spans="3:5" x14ac:dyDescent="0.2">
       <c r="D84" t="s">
-        <v>299</v>
+        <v>296</v>
       </c>
       <c r="E84" s="2" t="s">
         <v>15</v>
@@ -3805,27 +3838,27 @@
     </row>
     <row r="85" spans="3:5" x14ac:dyDescent="0.2">
       <c r="D85" t="s">
-        <v>300</v>
+        <v>297</v>
       </c>
     </row>
     <row r="86" spans="3:5" x14ac:dyDescent="0.2">
       <c r="D86" t="s">
-        <v>301</v>
+        <v>298</v>
       </c>
     </row>
     <row r="87" spans="3:5" x14ac:dyDescent="0.2">
       <c r="D87" t="s">
-        <v>302</v>
+        <v>299</v>
       </c>
     </row>
     <row r="88" spans="3:5" x14ac:dyDescent="0.2">
       <c r="D88" t="s">
-        <v>303</v>
+        <v>300</v>
       </c>
     </row>
     <row r="89" spans="3:5" x14ac:dyDescent="0.2">
       <c r="D89" t="s">
-        <v>304</v>
+        <v>301</v>
       </c>
     </row>
   </sheetData>
@@ -3859,19 +3892,19 @@
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B3" s="4" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
       <c r="F3" s="6"/>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.2">
       <c r="C4" t="s">
-        <v>204</v>
+        <v>201</v>
       </c>
       <c r="F4" s="6"/>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.2">
       <c r="D5" t="s">
-        <v>205</v>
+        <v>202</v>
       </c>
       <c r="E5" s="2" t="s">
         <v>15</v>
@@ -3880,7 +3913,7 @@
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.2">
       <c r="D6" t="s">
-        <v>206</v>
+        <v>203</v>
       </c>
       <c r="E6" s="2" t="s">
         <v>15</v>
@@ -3889,13 +3922,13 @@
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.2">
       <c r="D7" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
       <c r="F7" s="6"/>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.2">
       <c r="D8" t="s">
-        <v>208</v>
+        <v>205</v>
       </c>
       <c r="F8" s="6"/>
     </row>
@@ -3904,7 +3937,7 @@
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.2">
       <c r="C10" t="s">
-        <v>209</v>
+        <v>206</v>
       </c>
       <c r="F10" s="6"/>
     </row>
@@ -3916,7 +3949,7 @@
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.2">
       <c r="D12" t="s">
-        <v>210</v>
+        <v>207</v>
       </c>
       <c r="F12" s="6"/>
     </row>
@@ -3931,13 +3964,13 @@
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.2">
       <c r="D15" t="s">
-        <v>211</v>
+        <v>208</v>
       </c>
       <c r="F15" s="6"/>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.2">
       <c r="D16" t="s">
-        <v>212</v>
+        <v>209</v>
       </c>
       <c r="F16" s="6"/>
     </row>
@@ -3952,7 +3985,7 @@
     </row>
     <row r="19" spans="3:6" x14ac:dyDescent="0.2">
       <c r="D19" t="s">
-        <v>213</v>
+        <v>210</v>
       </c>
       <c r="F19" s="6"/>
     </row>
@@ -3964,7 +3997,7 @@
     </row>
     <row r="22" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C22" t="s">
-        <v>232</v>
+        <v>229</v>
       </c>
       <c r="F22" s="6"/>
     </row>
@@ -3976,7 +4009,7 @@
     </row>
     <row r="24" spans="3:6" x14ac:dyDescent="0.2">
       <c r="D24" t="s">
-        <v>233</v>
+        <v>230</v>
       </c>
       <c r="F24" s="6"/>
     </row>
@@ -3991,13 +4024,13 @@
     </row>
     <row r="27" spans="3:6" x14ac:dyDescent="0.2">
       <c r="D27" t="s">
-        <v>234</v>
+        <v>231</v>
       </c>
       <c r="F27" s="6"/>
     </row>
     <row r="28" spans="3:6" x14ac:dyDescent="0.2">
       <c r="D28" t="s">
-        <v>235</v>
+        <v>232</v>
       </c>
       <c r="F28" s="6"/>
     </row>
@@ -4012,7 +4045,7 @@
     </row>
     <row r="31" spans="3:6" x14ac:dyDescent="0.2">
       <c r="D31" t="s">
-        <v>236</v>
+        <v>233</v>
       </c>
       <c r="F31" s="6"/>
     </row>
@@ -4024,7 +4057,7 @@
     </row>
     <row r="34" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C34" t="s">
-        <v>237</v>
+        <v>234</v>
       </c>
       <c r="F34" s="6"/>
     </row>
@@ -4036,13 +4069,13 @@
     </row>
     <row r="36" spans="3:6" x14ac:dyDescent="0.2">
       <c r="D36" t="s">
-        <v>238</v>
+        <v>235</v>
       </c>
       <c r="F36" s="6"/>
     </row>
     <row r="37" spans="3:6" x14ac:dyDescent="0.2">
       <c r="D37" t="s">
-        <v>239</v>
+        <v>236</v>
       </c>
       <c r="F37" s="6"/>
     </row>
@@ -4057,13 +4090,13 @@
     </row>
     <row r="40" spans="3:6" x14ac:dyDescent="0.2">
       <c r="D40" t="s">
-        <v>240</v>
+        <v>237</v>
       </c>
       <c r="F40" s="6"/>
     </row>
     <row r="41" spans="3:6" x14ac:dyDescent="0.2">
       <c r="D41" t="s">
-        <v>241</v>
+        <v>238</v>
       </c>
       <c r="F41" s="6"/>
     </row>
@@ -4078,7 +4111,7 @@
     </row>
     <row r="44" spans="3:6" x14ac:dyDescent="0.2">
       <c r="D44" t="s">
-        <v>242</v>
+        <v>239</v>
       </c>
       <c r="F44" s="6"/>
     </row>
@@ -4090,13 +4123,13 @@
     </row>
     <row r="47" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C47" t="s">
-        <v>287</v>
+        <v>284</v>
       </c>
       <c r="F47" s="6"/>
     </row>
     <row r="48" spans="3:6" ht="16" x14ac:dyDescent="0.2">
       <c r="D48" s="7" t="s">
-        <v>288</v>
+        <v>285</v>
       </c>
       <c r="E48" s="1" t="s">
         <v>14</v>
@@ -4105,7 +4138,7 @@
     </row>
     <row r="49" spans="4:6" ht="16" x14ac:dyDescent="0.2">
       <c r="D49" s="7" t="s">
-        <v>289</v>
+        <v>286</v>
       </c>
       <c r="E49" s="2" t="s">
         <v>15</v>
@@ -4114,7 +4147,7 @@
     </row>
     <row r="50" spans="4:6" x14ac:dyDescent="0.2">
       <c r="D50" t="s">
-        <v>290</v>
+        <v>287</v>
       </c>
       <c r="E50" s="2" t="s">
         <v>15</v>
@@ -4123,19 +4156,19 @@
     </row>
     <row r="51" spans="4:6" x14ac:dyDescent="0.2">
       <c r="D51" t="s">
-        <v>291</v>
+        <v>288</v>
       </c>
       <c r="F51" s="6"/>
     </row>
     <row r="52" spans="4:6" x14ac:dyDescent="0.2">
       <c r="D52" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
       <c r="F52" s="6"/>
     </row>
     <row r="53" spans="4:6" x14ac:dyDescent="0.2">
       <c r="D53" t="s">
-        <v>293</v>
+        <v>290</v>
       </c>
       <c r="E53" s="2" t="s">
         <v>15</v>

--- a/study_notes_Pluralsight.xlsx
+++ b/study_notes_Pluralsight.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10912"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A6E98BB9-FDA3-A042-B030-12823BA6C263}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B1DD39EF-0EEB-3649-9F36-9A76373C3925}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="6440" yWindow="2100" windowWidth="25800" windowHeight="16840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="6440" yWindow="2100" windowWidth="25800" windowHeight="16840" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Frontend Dev" sheetId="1" r:id="rId1"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="587" uniqueCount="308">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="589" uniqueCount="309">
   <si>
     <t>Path:</t>
   </si>
@@ -956,6 +956,9 @@
   </si>
   <si>
     <t>(6) Styling Applications with Angular Material</t>
+  </si>
+  <si>
+    <t>TypeScript: The Big Picture</t>
   </si>
 </sst>
 </file>
@@ -1381,8 +1384,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A2:H218"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A135" zoomScale="118" zoomScaleNormal="110" zoomScalePageLayoutView="85" workbookViewId="0">
-      <selection activeCell="D147" sqref="D147"/>
+    <sheetView topLeftCell="A156" zoomScale="118" zoomScaleNormal="110" zoomScalePageLayoutView="85" workbookViewId="0">
+      <selection activeCell="G151" sqref="G151"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -3407,10 +3410,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9D1D9DD3-45DB-954C-B749-4F3B65D055A7}">
-  <dimension ref="A2:F89"/>
+  <dimension ref="A2:F90"/>
   <sheetViews>
-    <sheetView zoomScale="109" workbookViewId="0">
-      <selection activeCell="G82" sqref="G82"/>
+    <sheetView tabSelected="1" topLeftCell="A8" zoomScale="109" workbookViewId="0">
+      <selection activeCell="E28" sqref="E28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -3534,7 +3537,7 @@
     </row>
     <row r="22" spans="3:5" x14ac:dyDescent="0.2">
       <c r="D22" t="s">
-        <v>110</v>
+        <v>308</v>
       </c>
       <c r="E22" s="1" t="s">
         <v>14</v>
@@ -3542,108 +3545,108 @@
     </row>
     <row r="23" spans="3:5" x14ac:dyDescent="0.2">
       <c r="D23" t="s">
-        <v>111</v>
+        <v>110</v>
+      </c>
+      <c r="E23" s="1" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="24" spans="3:5" x14ac:dyDescent="0.2">
       <c r="D24" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
     </row>
     <row r="25" spans="3:5" x14ac:dyDescent="0.2">
       <c r="D25" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
     </row>
     <row r="26" spans="3:5" x14ac:dyDescent="0.2">
       <c r="D26" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
     </row>
     <row r="27" spans="3:5" x14ac:dyDescent="0.2">
       <c r="D27" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
     </row>
     <row r="28" spans="3:5" x14ac:dyDescent="0.2">
       <c r="D28" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
     </row>
     <row r="29" spans="3:5" x14ac:dyDescent="0.2">
       <c r="D29" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="30" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="D30" t="s">
         <v>117</v>
       </c>
     </row>
-    <row r="32" spans="3:5" x14ac:dyDescent="0.2">
-      <c r="C32" t="s">
+    <row r="33" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="C33" t="s">
         <v>118</v>
-      </c>
-    </row>
-    <row r="33" spans="3:5" x14ac:dyDescent="0.2">
-      <c r="D33" t="s">
-        <v>119</v>
       </c>
     </row>
     <row r="34" spans="3:5" x14ac:dyDescent="0.2">
       <c r="D34" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
     </row>
     <row r="35" spans="3:5" x14ac:dyDescent="0.2">
       <c r="D35" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
     </row>
     <row r="36" spans="3:5" x14ac:dyDescent="0.2">
       <c r="D36" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
     </row>
     <row r="37" spans="3:5" x14ac:dyDescent="0.2">
       <c r="D37" t="s">
-        <v>123</v>
-      </c>
-      <c r="E37" s="1" t="s">
-        <v>14</v>
+        <v>122</v>
       </c>
     </row>
     <row r="38" spans="3:5" x14ac:dyDescent="0.2">
       <c r="D38" t="s">
-        <v>124</v>
+        <v>123</v>
+      </c>
+      <c r="E38" s="1" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="39" spans="3:5" x14ac:dyDescent="0.2">
       <c r="D39" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="40" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="D40" t="s">
         <v>125</v>
       </c>
     </row>
-    <row r="41" spans="3:5" x14ac:dyDescent="0.2">
-      <c r="C41" t="s">
+    <row r="42" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="C42" t="s">
         <v>183</v>
       </c>
     </row>
-    <row r="42" spans="3:5" x14ac:dyDescent="0.2">
-      <c r="D42" t="s">
+    <row r="43" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="D43" t="s">
         <v>184</v>
       </c>
     </row>
-    <row r="46" spans="3:5" x14ac:dyDescent="0.2">
-      <c r="C46" t="s">
+    <row r="47" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="C47" t="s">
         <v>186</v>
-      </c>
-    </row>
-    <row r="47" spans="3:5" x14ac:dyDescent="0.2">
-      <c r="D47" t="s">
-        <v>187</v>
-      </c>
-      <c r="E47" s="1" t="s">
-        <v>14</v>
       </c>
     </row>
     <row r="48" spans="3:5" x14ac:dyDescent="0.2">
       <c r="D48" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="E48" s="1" t="s">
         <v>14</v>
@@ -3651,15 +3654,15 @@
     </row>
     <row r="49" spans="3:5" x14ac:dyDescent="0.2">
       <c r="D49" t="s">
-        <v>189</v>
-      </c>
-      <c r="E49" s="2" t="s">
-        <v>15</v>
+        <v>188</v>
+      </c>
+      <c r="E49" s="1" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="50" spans="3:5" x14ac:dyDescent="0.2">
       <c r="D50" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
       <c r="E50" s="2" t="s">
         <v>15</v>
@@ -3667,69 +3670,69 @@
     </row>
     <row r="51" spans="3:5" x14ac:dyDescent="0.2">
       <c r="D51" t="s">
-        <v>190</v>
+        <v>192</v>
+      </c>
+      <c r="E51" s="2" t="s">
+        <v>15</v>
       </c>
     </row>
     <row r="52" spans="3:5" x14ac:dyDescent="0.2">
       <c r="D52" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="53" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="D53" t="s">
         <v>191</v>
       </c>
     </row>
-    <row r="53" spans="3:5" ht="32" x14ac:dyDescent="0.2">
-      <c r="D53" s="7" t="s">
+    <row r="54" spans="3:5" ht="32" x14ac:dyDescent="0.2">
+      <c r="D54" s="7" t="s">
         <v>257</v>
       </c>
     </row>
-    <row r="55" spans="3:5" x14ac:dyDescent="0.2">
-      <c r="C55" t="s">
+    <row r="56" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="C56" t="s">
         <v>193</v>
-      </c>
-    </row>
-    <row r="56" spans="3:5" x14ac:dyDescent="0.2">
-      <c r="D56" t="s">
-        <v>194</v>
-      </c>
-      <c r="E56" s="1" t="s">
-        <v>14</v>
       </c>
     </row>
     <row r="57" spans="3:5" x14ac:dyDescent="0.2">
       <c r="D57" t="s">
+        <v>194</v>
+      </c>
+      <c r="E57" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="58" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="D58" t="s">
         <v>195</v>
       </c>
-      <c r="E57" s="2" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="59" spans="3:5" x14ac:dyDescent="0.2">
-      <c r="C59" t="s">
+      <c r="E58" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="60" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="C60" t="s">
         <v>198</v>
       </c>
     </row>
-    <row r="60" spans="3:5" x14ac:dyDescent="0.2">
-      <c r="D60" t="s">
+    <row r="61" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="D61" t="s">
         <v>199</v>
       </c>
-      <c r="E60" s="1" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="63" spans="3:5" x14ac:dyDescent="0.2">
-      <c r="C63" t="s">
+      <c r="E61" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="64" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="C64" t="s">
         <v>243</v>
-      </c>
-    </row>
-    <row r="64" spans="3:5" x14ac:dyDescent="0.2">
-      <c r="D64" t="s">
-        <v>244</v>
-      </c>
-      <c r="E64" s="8" t="s">
-        <v>245</v>
       </c>
     </row>
     <row r="65" spans="3:5" x14ac:dyDescent="0.2">
       <c r="D65" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="E65" s="8" t="s">
         <v>245</v>
@@ -3737,100 +3740,100 @@
     </row>
     <row r="66" spans="3:5" x14ac:dyDescent="0.2">
       <c r="D66" t="s">
-        <v>247</v>
-      </c>
-      <c r="E66" s="1" t="s">
-        <v>14</v>
+        <v>246</v>
+      </c>
+      <c r="E66" s="8" t="s">
+        <v>245</v>
       </c>
     </row>
     <row r="67" spans="3:5" x14ac:dyDescent="0.2">
       <c r="D67" t="s">
-        <v>248</v>
+        <v>247</v>
+      </c>
+      <c r="E67" s="1" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="68" spans="3:5" x14ac:dyDescent="0.2">
       <c r="D68" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
     </row>
     <row r="69" spans="3:5" x14ac:dyDescent="0.2">
       <c r="D69" t="s">
-        <v>250</v>
-      </c>
-      <c r="E69" s="8" t="s">
-        <v>245</v>
+        <v>249</v>
       </c>
     </row>
     <row r="70" spans="3:5" x14ac:dyDescent="0.2">
       <c r="D70" t="s">
-        <v>251</v>
+        <v>250</v>
+      </c>
+      <c r="E70" s="8" t="s">
+        <v>245</v>
       </c>
     </row>
     <row r="71" spans="3:5" x14ac:dyDescent="0.2">
       <c r="D71" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
     </row>
     <row r="72" spans="3:5" x14ac:dyDescent="0.2">
       <c r="D72" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
     </row>
     <row r="73" spans="3:5" x14ac:dyDescent="0.2">
       <c r="D73" t="s">
-        <v>254</v>
-      </c>
-      <c r="E73" s="8" t="s">
-        <v>245</v>
+        <v>253</v>
       </c>
     </row>
     <row r="74" spans="3:5" x14ac:dyDescent="0.2">
       <c r="D74" t="s">
+        <v>254</v>
+      </c>
+      <c r="E74" s="8" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="75" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="D75" t="s">
         <v>255</v>
       </c>
     </row>
-    <row r="75" spans="3:5" ht="32" x14ac:dyDescent="0.2">
-      <c r="D75" s="7" t="s">
+    <row r="76" spans="3:5" ht="32" x14ac:dyDescent="0.2">
+      <c r="D76" s="7" t="s">
         <v>256</v>
       </c>
     </row>
-    <row r="77" spans="3:5" x14ac:dyDescent="0.2">
-      <c r="C77" t="s">
+    <row r="78" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="C78" t="s">
         <v>291</v>
       </c>
     </row>
-    <row r="78" spans="3:5" ht="16" x14ac:dyDescent="0.2">
-      <c r="D78" s="7" t="s">
+    <row r="79" spans="3:5" ht="16" x14ac:dyDescent="0.2">
+      <c r="D79" s="7" t="s">
         <v>293</v>
       </c>
-      <c r="E78" s="2" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="79" spans="3:5" x14ac:dyDescent="0.2">
-      <c r="D79" t="s">
+      <c r="E79" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="80" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="D80" t="s">
         <v>292</v>
       </c>
-      <c r="E79" s="2" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="82" spans="3:5" x14ac:dyDescent="0.2">
-      <c r="C82" t="s">
+      <c r="E80" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="83" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="C83" t="s">
         <v>294</v>
-      </c>
-    </row>
-    <row r="83" spans="3:5" x14ac:dyDescent="0.2">
-      <c r="D83" t="s">
-        <v>295</v>
-      </c>
-      <c r="E83" s="2" t="s">
-        <v>15</v>
       </c>
     </row>
     <row r="84" spans="3:5" x14ac:dyDescent="0.2">
       <c r="D84" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="E84" s="2" t="s">
         <v>15</v>
@@ -3838,26 +3841,34 @@
     </row>
     <row r="85" spans="3:5" x14ac:dyDescent="0.2">
       <c r="D85" t="s">
-        <v>297</v>
+        <v>296</v>
+      </c>
+      <c r="E85" s="2" t="s">
+        <v>15</v>
       </c>
     </row>
     <row r="86" spans="3:5" x14ac:dyDescent="0.2">
       <c r="D86" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
     </row>
     <row r="87" spans="3:5" x14ac:dyDescent="0.2">
       <c r="D87" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
     </row>
     <row r="88" spans="3:5" x14ac:dyDescent="0.2">
       <c r="D88" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
     </row>
     <row r="89" spans="3:5" x14ac:dyDescent="0.2">
       <c r="D89" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="90" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="D90" t="s">
         <v>301</v>
       </c>
     </row>

--- a/study_notes_Pluralsight.xlsx
+++ b/study_notes_Pluralsight.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10912"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="11010"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B1DD39EF-0EEB-3649-9F36-9A76373C3925}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3032B3E3-C108-F047-8384-4021AE298615}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="6440" yWindow="2100" windowWidth="25800" windowHeight="16840" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="6440" yWindow="2100" windowWidth="25800" windowHeight="16840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Frontend Dev" sheetId="1" r:id="rId1"/>
@@ -1384,8 +1384,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A2:H218"/>
   <sheetViews>
-    <sheetView topLeftCell="A156" zoomScale="118" zoomScaleNormal="110" zoomScalePageLayoutView="85" workbookViewId="0">
-      <selection activeCell="G151" sqref="G151"/>
+    <sheetView tabSelected="1" topLeftCell="A132" zoomScale="118" zoomScaleNormal="110" zoomScalePageLayoutView="85" workbookViewId="0">
+      <selection activeCell="G144" sqref="G144"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -2167,8 +2167,8 @@
       <c r="D144" t="s">
         <v>306</v>
       </c>
-      <c r="E144" s="2" t="s">
-        <v>15</v>
+      <c r="E144" s="1" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="145" spans="4:5" x14ac:dyDescent="0.2">
@@ -3412,7 +3412,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9D1D9DD3-45DB-954C-B749-4F3B65D055A7}">
   <dimension ref="A2:F90"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A8" zoomScale="109" workbookViewId="0">
+    <sheetView topLeftCell="A8" zoomScale="109" workbookViewId="0">
       <selection activeCell="E28" sqref="E28"/>
     </sheetView>
   </sheetViews>

--- a/study_notes_Pluralsight.xlsx
+++ b/study_notes_Pluralsight.xlsx
@@ -1,18 +1,19 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="11010"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="11211"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3032B3E3-C108-F047-8384-4021AE298615}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{24817F2D-EC82-C74E-8733-0AB40C1B56E0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="6440" yWindow="2100" windowWidth="25800" windowHeight="16840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="6440" yWindow="2100" windowWidth="25800" windowHeight="16840" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Frontend Dev" sheetId="1" r:id="rId1"/>
     <sheet name="Backend Dev" sheetId="2" r:id="rId2"/>
     <sheet name="AWS" sheetId="3" r:id="rId3"/>
-    <sheet name="Misc" sheetId="4" r:id="rId4"/>
-    <sheet name="UX-Design" sheetId="5" r:id="rId5"/>
+    <sheet name="Android" sheetId="6" r:id="rId4"/>
+    <sheet name="Misc" sheetId="4" r:id="rId5"/>
+    <sheet name="UX-Design" sheetId="5" r:id="rId6"/>
   </sheets>
   <calcPr calcId="150001" concurrentCalc="0"/>
   <extLst>
@@ -30,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="589" uniqueCount="309">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="624" uniqueCount="336">
   <si>
     <t>Path:</t>
   </si>
@@ -959,6 +960,87 @@
   </si>
   <si>
     <t>TypeScript: The Big Picture</t>
+  </si>
+  <si>
+    <t>Android:</t>
+  </si>
+  <si>
+    <t>1.Developing Android Applications with Kotlin</t>
+  </si>
+  <si>
+    <t>App Fundamentals</t>
+  </si>
+  <si>
+    <t>(1) Developing Android Applications with Kotlin: The Big Picture</t>
+  </si>
+  <si>
+    <t>(2) Developing Android Applications with Kotlin: Getting Started</t>
+  </si>
+  <si>
+    <t>(3) Testing and Debugging with Android Studio and Gradle</t>
+  </si>
+  <si>
+    <t>(4) Customizing Styles and Themes with Resources</t>
+  </si>
+  <si>
+    <t>(5) Creating High-quality UX with AndroidX</t>
+  </si>
+  <si>
+    <t>(6) Managing LifeCycle and ViewModel Data</t>
+  </si>
+  <si>
+    <t>Storage and Data</t>
+  </si>
+  <si>
+    <t>(1) Customizing UI Settings Using the AndroidX Preference Library</t>
+  </si>
+  <si>
+    <t>(2) Managing and Binding Data Using the Paging Library</t>
+  </si>
+  <si>
+    <t>(3) Creating a Database with SQLite, DAO, and Room</t>
+  </si>
+  <si>
+    <t>Enhancing App Experience</t>
+  </si>
+  <si>
+    <t>(1) Performing Background Jobs with WorkManager and Coroutines</t>
+  </si>
+  <si>
+    <t>(2) Enhancing UX with Notifications and App Widgets</t>
+  </si>
+  <si>
+    <t>(3) Developing Android Applications with Kotlin: Custom Views Playbook</t>
+  </si>
+  <si>
+    <t>(4) Creating Accessibility-friendly Applications</t>
+  </si>
+  <si>
+    <t>2.Google: Associate Android Developer (AAD)</t>
+  </si>
+  <si>
+    <t>(1) Understanding Android Application Basics</t>
+  </si>
+  <si>
+    <t>(2) Working with Android Tools and Testing</t>
+  </si>
+  <si>
+    <t>(3) Add Implicit and Explicit Intents to an Android Candy Store App</t>
+  </si>
+  <si>
+    <t>(1) Enhancing the Android Application Experience</t>
+  </si>
+  <si>
+    <t>(2) Managing Android App Data with SQLite</t>
+  </si>
+  <si>
+    <t>(3) Exposing Data and Information Outside Your Android App</t>
+  </si>
+  <si>
+    <t>(1) Leveraging the Power of the Android Platform</t>
+  </si>
+  <si>
+    <t>(2) Broadening Android App Appeal and Reach</t>
   </si>
 </sst>
 </file>
@@ -1384,7 +1466,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A2:H218"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A132" zoomScale="118" zoomScaleNormal="110" zoomScalePageLayoutView="85" workbookViewId="0">
+    <sheetView topLeftCell="A132" zoomScale="118" zoomScaleNormal="110" zoomScalePageLayoutView="85" workbookViewId="0">
       <selection activeCell="G144" sqref="G144"/>
     </sheetView>
   </sheetViews>
@@ -2650,7 +2732,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{568DD5E0-8812-F745-B0FF-3B6970B39263}">
   <dimension ref="A2:F87"/>
   <sheetViews>
-    <sheetView topLeftCell="A8" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="J17" sqref="J17"/>
     </sheetView>
   </sheetViews>
@@ -3031,8 +3113,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{076B4C54-1F2D-3F42-8204-6CD64AE9583C}">
   <dimension ref="A2:F87"/>
   <sheetViews>
-    <sheetView topLeftCell="A51" workbookViewId="0">
-      <selection activeCell="F1" sqref="F1:F1048576"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H31" sqref="H31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -3409,6 +3491,244 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0488C39E-3139-A142-BA1D-A8853BF21B85}">
+  <dimension ref="A1:F38"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="G35" sqref="G35"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="3" max="3" width="39.83203125" customWidth="1"/>
+    <col min="4" max="4" width="56.1640625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="F1" s="6"/>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A2" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="F2" s="6"/>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="B3" s="4" t="s">
+        <v>309</v>
+      </c>
+      <c r="F3" s="6"/>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="C4" t="s">
+        <v>310</v>
+      </c>
+      <c r="F4" s="6"/>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="D5" t="s">
+        <v>311</v>
+      </c>
+      <c r="F5" s="6"/>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="D6" t="s">
+        <v>312</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="F6" s="6"/>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="D7" t="s">
+        <v>313</v>
+      </c>
+      <c r="E7" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="F7" s="6"/>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="D8" t="s">
+        <v>314</v>
+      </c>
+      <c r="F8" s="6"/>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="D9" t="s">
+        <v>315</v>
+      </c>
+      <c r="F9" s="6"/>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="D10" t="s">
+        <v>316</v>
+      </c>
+      <c r="F10" s="6"/>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="D11" t="s">
+        <v>317</v>
+      </c>
+      <c r="F11" s="6"/>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="F12" s="6"/>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="D13" t="s">
+        <v>318</v>
+      </c>
+      <c r="F13" s="6"/>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="D14" t="s">
+        <v>319</v>
+      </c>
+      <c r="F14" s="6"/>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="D15" t="s">
+        <v>320</v>
+      </c>
+      <c r="F15" s="6"/>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="D16" t="s">
+        <v>321</v>
+      </c>
+      <c r="F16" s="6"/>
+    </row>
+    <row r="17" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="F17" s="6"/>
+    </row>
+    <row r="18" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="D18" t="s">
+        <v>322</v>
+      </c>
+      <c r="F18" s="6"/>
+    </row>
+    <row r="19" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="D19" t="s">
+        <v>323</v>
+      </c>
+      <c r="F19" s="6"/>
+    </row>
+    <row r="20" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="D20" t="s">
+        <v>324</v>
+      </c>
+      <c r="F20" s="6"/>
+    </row>
+    <row r="21" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="D21" t="s">
+        <v>325</v>
+      </c>
+      <c r="F21" s="6"/>
+    </row>
+    <row r="22" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="D22" t="s">
+        <v>326</v>
+      </c>
+      <c r="F22" s="6"/>
+    </row>
+    <row r="23" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="F23" s="6"/>
+    </row>
+    <row r="24" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="F24" s="6"/>
+    </row>
+    <row r="25" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="C25" t="s">
+        <v>327</v>
+      </c>
+      <c r="F25" s="6"/>
+    </row>
+    <row r="26" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="D26" t="s">
+        <v>2</v>
+      </c>
+      <c r="F26" s="6"/>
+    </row>
+    <row r="27" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="D27" t="s">
+        <v>328</v>
+      </c>
+      <c r="E27" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="F27" s="6"/>
+    </row>
+    <row r="28" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="D28" t="s">
+        <v>329</v>
+      </c>
+      <c r="E28" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="F28" s="6"/>
+    </row>
+    <row r="29" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="D29" t="s">
+        <v>330</v>
+      </c>
+      <c r="F29" s="6"/>
+    </row>
+    <row r="30" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="F30" s="6"/>
+    </row>
+    <row r="31" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="D31" t="s">
+        <v>6</v>
+      </c>
+      <c r="F31" s="6"/>
+    </row>
+    <row r="32" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="D32" t="s">
+        <v>331</v>
+      </c>
+      <c r="F32" s="6"/>
+    </row>
+    <row r="33" spans="4:6" x14ac:dyDescent="0.2">
+      <c r="D33" t="s">
+        <v>332</v>
+      </c>
+      <c r="F33" s="6"/>
+    </row>
+    <row r="34" spans="4:6" x14ac:dyDescent="0.2">
+      <c r="D34" t="s">
+        <v>333</v>
+      </c>
+      <c r="F34" s="6"/>
+    </row>
+    <row r="35" spans="4:6" x14ac:dyDescent="0.2">
+      <c r="F35" s="6"/>
+    </row>
+    <row r="36" spans="4:6" x14ac:dyDescent="0.2">
+      <c r="D36" t="s">
+        <v>10</v>
+      </c>
+      <c r="F36" s="6"/>
+    </row>
+    <row r="37" spans="4:6" x14ac:dyDescent="0.2">
+      <c r="D37" t="s">
+        <v>334</v>
+      </c>
+      <c r="F37" s="6"/>
+    </row>
+    <row r="38" spans="4:6" x14ac:dyDescent="0.2">
+      <c r="D38" t="s">
+        <v>335</v>
+      </c>
+      <c r="F38" s="6"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9D1D9DD3-45DB-954C-B749-4F3B65D055A7}">
   <dimension ref="A2:F90"/>
   <sheetViews>
@@ -3877,7 +4197,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FB9ABC91-AC07-7449-9663-5AC028EFD06D}">
   <dimension ref="A1:F57"/>
   <sheetViews>

--- a/study_notes_Pluralsight.xlsx
+++ b/study_notes_Pluralsight.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="11211"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{24817F2D-EC82-C74E-8733-0AB40C1B56E0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D8BF66EF-1610-D44A-A106-E0814F94CA82}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="6440" yWindow="2100" windowWidth="25800" windowHeight="16840" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="6440" yWindow="2100" windowWidth="25800" windowHeight="16840" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Frontend Dev" sheetId="1" r:id="rId1"/>
@@ -1466,7 +1466,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A2:H218"/>
   <sheetViews>
-    <sheetView topLeftCell="A132" zoomScale="118" zoomScaleNormal="110" zoomScalePageLayoutView="85" workbookViewId="0">
+    <sheetView topLeftCell="A133" zoomScale="118" zoomScaleNormal="110" zoomScalePageLayoutView="85" workbookViewId="0">
       <selection activeCell="G144" sqref="G144"/>
     </sheetView>
   </sheetViews>
@@ -3494,7 +3494,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0488C39E-3139-A142-BA1D-A8853BF21B85}">
   <dimension ref="A1:F38"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+    <sheetView topLeftCell="A7" workbookViewId="0">
       <selection activeCell="G35" sqref="G35"/>
     </sheetView>
   </sheetViews>
@@ -3732,8 +3732,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9D1D9DD3-45DB-954C-B749-4F3B65D055A7}">
   <dimension ref="A2:F90"/>
   <sheetViews>
-    <sheetView topLeftCell="A8" zoomScale="109" workbookViewId="0">
-      <selection activeCell="E28" sqref="E28"/>
+    <sheetView tabSelected="1" topLeftCell="A27" zoomScale="109" workbookViewId="0">
+      <selection activeCell="E54" sqref="E54"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -3992,8 +3992,8 @@
       <c r="D51" t="s">
         <v>192</v>
       </c>
-      <c r="E51" s="2" t="s">
-        <v>15</v>
+      <c r="E51" s="1" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="52" spans="3:5" x14ac:dyDescent="0.2">

--- a/study_notes_Pluralsight.xlsx
+++ b/study_notes_Pluralsight.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="11211"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10611"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D8BF66EF-1610-D44A-A106-E0814F94CA82}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B1F9A73D-F621-394C-9E1F-1AEC81BACD71}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="6440" yWindow="2100" windowWidth="25800" windowHeight="16840" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="37500" yWindow="2600" windowWidth="25800" windowHeight="16840" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Frontend Dev" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="624" uniqueCount="336">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="584" uniqueCount="368">
   <si>
     <t>Path:</t>
   </si>
@@ -622,9 +622,6 @@
   </si>
   <si>
     <t>AngularJS Security Fundamentals</t>
-  </si>
-  <si>
-    <t>AWS:</t>
   </si>
   <si>
     <t>9. Cookie</t>
@@ -1041,6 +1038,105 @@
   </si>
   <si>
     <t>(2) Broadening Android App Appeal and Reach</t>
+  </si>
+  <si>
+    <t>1. AWS Certified Cloud Practitioner (CLF-C01)</t>
+  </si>
+  <si>
+    <t>(1) Cloud Certifications: AWS Certified Cloud Practitioner</t>
+  </si>
+  <si>
+    <t>(2) Fundamental Cloud Concepts for AWS</t>
+  </si>
+  <si>
+    <t>(3) Understanding AWS Core Services</t>
+  </si>
+  <si>
+    <t>(4) Introduction to Security and Architecture on AWS</t>
+  </si>
+  <si>
+    <t>(5) AWS Certified Cloud Practitioner: Exam Prep</t>
+  </si>
+  <si>
+    <t>2. AWS Certified Developer – Associate (DVA-C01)</t>
+  </si>
+  <si>
+    <t>(1) Cloud Certifications: AWS Certified Developer - Associate</t>
+  </si>
+  <si>
+    <t>(2) AWS Developer: The Big Picture</t>
+  </si>
+  <si>
+    <t>Development with Basic AWS Services</t>
+  </si>
+  <si>
+    <t>AWS Certified Cloud Practitioner</t>
+  </si>
+  <si>
+    <t>(3) AWS Developer: Getting Started</t>
+  </si>
+  <si>
+    <t>Developing Further with AWS Services, Deploying, and Refactoring</t>
+  </si>
+  <si>
+    <t>(1) AWS Developer: Designing and Developing</t>
+  </si>
+  <si>
+    <t>Security and Monitoring</t>
+  </si>
+  <si>
+    <t>(1) AWS Developer: Deployment and Security</t>
+  </si>
+  <si>
+    <t>(2) AWS Developer: Serverless Architecture and Monitoring</t>
+  </si>
+  <si>
+    <t>(3) Demystifying the AWS Certified Developer: Associate Exam</t>
+  </si>
+  <si>
+    <t>3. AWS Certified Solutions Architect – Associate (SAA-C02)</t>
+  </si>
+  <si>
+    <t>Foundational:</t>
+  </si>
+  <si>
+    <t>Associate:</t>
+  </si>
+  <si>
+    <t>4. AWS Certified SysOps Administrator - Associate (SOA-C02)</t>
+  </si>
+  <si>
+    <t>Professional:</t>
+  </si>
+  <si>
+    <t>5. AWS Certified DevOps Engineer – Professional (DOP-C01)</t>
+  </si>
+  <si>
+    <t>6. AWS Certified Solutions Architect - Professional (SAP-C01)</t>
+  </si>
+  <si>
+    <t>Specialty:</t>
+  </si>
+  <si>
+    <t>7. AWS Certified Advanced Networking – Specialty (ANS-C00)</t>
+  </si>
+  <si>
+    <t>8. AWS Certified Data Analytics – Specialty (DAS-C01)</t>
+  </si>
+  <si>
+    <t>9. AWS Certified Database – Specialty (DBS-C01)</t>
+  </si>
+  <si>
+    <t>10. AWS Certified Machine Learning – Specialty (MLS-C01)</t>
+  </si>
+  <si>
+    <t>11. AWS Certified: SAP on AWS - Specialty (PAS-C01)</t>
+  </si>
+  <si>
+    <t>12. AWS Certified Security – Specialty (SCS-C01)</t>
+  </si>
+  <si>
+    <t>13. AWS Certified Advanced Networking – Specialty (ANS-C01)</t>
   </si>
 </sst>
 </file>
@@ -2247,7 +2343,7 @@
     </row>
     <row r="144" spans="3:5" x14ac:dyDescent="0.2">
       <c r="D144" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="E144" s="1" t="s">
         <v>14</v>
@@ -2255,7 +2351,7 @@
     </row>
     <row r="145" spans="4:5" x14ac:dyDescent="0.2">
       <c r="D145" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="E145" s="2" t="s">
         <v>15</v>
@@ -2308,7 +2404,7 @@
     </row>
     <row r="153" spans="4:5" ht="16" x14ac:dyDescent="0.2">
       <c r="D153" s="7" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="E153" s="2" t="s">
         <v>15</v>
@@ -2316,7 +2412,7 @@
     </row>
     <row r="154" spans="4:5" x14ac:dyDescent="0.2">
       <c r="D154" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="E154" s="2" t="s">
         <v>15</v>
@@ -2324,7 +2420,7 @@
     </row>
     <row r="155" spans="4:5" x14ac:dyDescent="0.2">
       <c r="D155" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="E155" s="1" t="s">
         <v>14</v>
@@ -2332,7 +2428,7 @@
     </row>
     <row r="156" spans="4:5" x14ac:dyDescent="0.2">
       <c r="D156" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="E156" s="1" t="s">
         <v>14</v>
@@ -2362,7 +2458,7 @@
     <row r="163" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B163" s="4"/>
       <c r="C163" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
     </row>
     <row r="164" spans="2:5" x14ac:dyDescent="0.2">
@@ -2375,7 +2471,7 @@
     </row>
     <row r="165" spans="2:5" x14ac:dyDescent="0.2">
       <c r="D165" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="E165" s="1" t="s">
         <v>14</v>
@@ -2383,7 +2479,7 @@
     </row>
     <row r="166" spans="2:5" ht="16" x14ac:dyDescent="0.2">
       <c r="D166" s="7" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="E166" s="1" t="s">
         <v>14</v>
@@ -2391,7 +2487,7 @@
     </row>
     <row r="167" spans="2:5" x14ac:dyDescent="0.2">
       <c r="D167" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="E167" s="1" t="s">
         <v>14</v>
@@ -2399,7 +2495,7 @@
     </row>
     <row r="168" spans="2:5" x14ac:dyDescent="0.2">
       <c r="D168" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="E168" s="1" t="s">
         <v>14</v>
@@ -2407,7 +2503,7 @@
     </row>
     <row r="169" spans="2:5" x14ac:dyDescent="0.2">
       <c r="D169" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="E169" s="1" t="s">
         <v>14</v>
@@ -2415,7 +2511,7 @@
     </row>
     <row r="170" spans="2:5" x14ac:dyDescent="0.2">
       <c r="D170" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="E170" s="1" t="s">
         <v>14</v>
@@ -2423,7 +2519,7 @@
     </row>
     <row r="171" spans="2:5" x14ac:dyDescent="0.2">
       <c r="D171" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="E171" s="1" t="s">
         <v>14</v>
@@ -2431,7 +2527,7 @@
     </row>
     <row r="172" spans="2:5" x14ac:dyDescent="0.2">
       <c r="D172" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="E172" s="1" t="s">
         <v>14</v>
@@ -2439,7 +2535,7 @@
     </row>
     <row r="173" spans="2:5" x14ac:dyDescent="0.2">
       <c r="D173" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="E173" s="1" t="s">
         <v>14</v>
@@ -2447,7 +2543,7 @@
     </row>
     <row r="174" spans="2:5" x14ac:dyDescent="0.2">
       <c r="D174" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="E174" s="1" t="s">
         <v>14</v>
@@ -2455,7 +2551,7 @@
     </row>
     <row r="175" spans="2:5" x14ac:dyDescent="0.2">
       <c r="D175" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="E175" s="2" t="s">
         <v>15</v>
@@ -2463,7 +2559,7 @@
     </row>
     <row r="176" spans="2:5" x14ac:dyDescent="0.2">
       <c r="D176" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="E176" s="2" t="s">
         <v>15</v>
@@ -2471,7 +2567,7 @@
     </row>
     <row r="177" spans="3:5" x14ac:dyDescent="0.2">
       <c r="D177" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="E177" s="1" t="s">
         <v>14</v>
@@ -2479,7 +2575,7 @@
     </row>
     <row r="178" spans="3:5" x14ac:dyDescent="0.2">
       <c r="D178" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="E178" s="2" t="s">
         <v>15</v>
@@ -2487,7 +2583,7 @@
     </row>
     <row r="179" spans="3:5" x14ac:dyDescent="0.2">
       <c r="D179" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="E179" s="2" t="s">
         <v>15</v>
@@ -2495,7 +2591,7 @@
     </row>
     <row r="180" spans="3:5" x14ac:dyDescent="0.2">
       <c r="D180" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="E180" s="2" t="s">
         <v>15</v>
@@ -2503,7 +2599,7 @@
     </row>
     <row r="181" spans="3:5" x14ac:dyDescent="0.2">
       <c r="D181" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="E181" s="2" t="s">
         <v>15</v>
@@ -2511,12 +2607,12 @@
     </row>
     <row r="184" spans="3:5" x14ac:dyDescent="0.2">
       <c r="C184" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
     </row>
     <row r="185" spans="3:5" x14ac:dyDescent="0.2">
       <c r="D185" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="E185" s="1" t="s">
         <v>14</v>
@@ -2524,7 +2620,7 @@
     </row>
     <row r="186" spans="3:5" x14ac:dyDescent="0.2">
       <c r="D186" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="E186" s="1" t="s">
         <v>14</v>
@@ -2532,7 +2628,7 @@
     </row>
     <row r="187" spans="3:5" x14ac:dyDescent="0.2">
       <c r="D187" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="E187" s="1" t="s">
         <v>14</v>
@@ -2540,7 +2636,7 @@
     </row>
     <row r="188" spans="3:5" x14ac:dyDescent="0.2">
       <c r="D188" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="E188" s="2" t="s">
         <v>15</v>
@@ -2548,7 +2644,7 @@
     </row>
     <row r="189" spans="3:5" x14ac:dyDescent="0.2">
       <c r="D189" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="E189" s="2" t="s">
         <v>15</v>
@@ -2556,12 +2652,12 @@
     </row>
     <row r="192" spans="3:5" x14ac:dyDescent="0.2">
       <c r="C192" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
     </row>
     <row r="193" spans="3:5" x14ac:dyDescent="0.2">
       <c r="D193" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="E193" s="1" t="s">
         <v>14</v>
@@ -2569,7 +2665,7 @@
     </row>
     <row r="194" spans="3:5" x14ac:dyDescent="0.2">
       <c r="D194" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="E194" s="1" t="s">
         <v>14</v>
@@ -2577,7 +2673,7 @@
     </row>
     <row r="195" spans="3:5" x14ac:dyDescent="0.2">
       <c r="D195" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="E195" s="1" t="s">
         <v>14</v>
@@ -2585,7 +2681,7 @@
     </row>
     <row r="196" spans="3:5" x14ac:dyDescent="0.2">
       <c r="D196" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="E196" s="1" t="s">
         <v>14</v>
@@ -2593,7 +2689,7 @@
     </row>
     <row r="197" spans="3:5" x14ac:dyDescent="0.2">
       <c r="D197" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="E197" s="1" t="s">
         <v>14</v>
@@ -2601,7 +2697,7 @@
     </row>
     <row r="198" spans="3:5" x14ac:dyDescent="0.2">
       <c r="D198" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="E198" s="1" t="s">
         <v>14</v>
@@ -2609,7 +2705,7 @@
     </row>
     <row r="199" spans="3:5" x14ac:dyDescent="0.2">
       <c r="D199" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="E199" s="2" t="s">
         <v>15</v>
@@ -2617,7 +2713,7 @@
     </row>
     <row r="200" spans="3:5" x14ac:dyDescent="0.2">
       <c r="D200" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="E200" s="1" t="s">
         <v>14</v>
@@ -2625,7 +2721,7 @@
     </row>
     <row r="201" spans="3:5" x14ac:dyDescent="0.2">
       <c r="D201" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="E201" s="2" t="s">
         <v>15</v>
@@ -2633,7 +2729,7 @@
     </row>
     <row r="202" spans="3:5" x14ac:dyDescent="0.2">
       <c r="D202" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="E202" s="2" t="s">
         <v>15</v>
@@ -2641,7 +2737,7 @@
     </row>
     <row r="205" spans="3:5" x14ac:dyDescent="0.2">
       <c r="C205" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
     </row>
     <row r="206" spans="3:5" x14ac:dyDescent="0.2">
@@ -2651,7 +2747,7 @@
     </row>
     <row r="207" spans="3:5" x14ac:dyDescent="0.2">
       <c r="D207" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="E207" s="1" t="s">
         <v>14</v>
@@ -2659,7 +2755,7 @@
     </row>
     <row r="208" spans="3:5" x14ac:dyDescent="0.2">
       <c r="D208" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="E208" s="1" t="s">
         <v>14</v>
@@ -2672,7 +2768,7 @@
     </row>
     <row r="211" spans="4:5" x14ac:dyDescent="0.2">
       <c r="D211" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="E211" s="1" t="s">
         <v>14</v>
@@ -2680,7 +2776,7 @@
     </row>
     <row r="212" spans="4:5" x14ac:dyDescent="0.2">
       <c r="D212" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="E212" s="1" t="s">
         <v>14</v>
@@ -2688,7 +2784,7 @@
     </row>
     <row r="213" spans="4:5" x14ac:dyDescent="0.2">
       <c r="D213" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="E213" s="2" t="s">
         <v>15</v>
@@ -2696,7 +2792,7 @@
     </row>
     <row r="214" spans="4:5" x14ac:dyDescent="0.2">
       <c r="D214" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="E214" s="2" t="s">
         <v>15</v>
@@ -2704,22 +2800,22 @@
     </row>
     <row r="215" spans="4:5" x14ac:dyDescent="0.2">
       <c r="D215" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
     </row>
     <row r="216" spans="4:5" x14ac:dyDescent="0.2">
       <c r="D216" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
     </row>
     <row r="217" spans="4:5" x14ac:dyDescent="0.2">
       <c r="D217" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
     </row>
     <row r="218" spans="4:5" x14ac:dyDescent="0.2">
       <c r="D218" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
     </row>
   </sheetData>
@@ -3111,17 +3207,17 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{076B4C54-1F2D-3F42-8204-6CD64AE9583C}">
-  <dimension ref="A2:F87"/>
+  <dimension ref="A2:F54"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H31" sqref="H31"/>
+    <sheetView tabSelected="1" topLeftCell="A31" zoomScale="150" workbookViewId="0">
+      <selection activeCell="D54" sqref="D54"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="6.1640625" customWidth="1"/>
-    <col min="2" max="2" width="14.5" customWidth="1"/>
-    <col min="3" max="3" width="23.33203125" customWidth="1"/>
+    <col min="2" max="2" width="12.6640625" customWidth="1"/>
+    <col min="3" max="3" width="49" customWidth="1"/>
     <col min="4" max="4" width="50.83203125" customWidth="1"/>
     <col min="5" max="5" width="15.6640625" customWidth="1"/>
     <col min="6" max="6" width="7.5" style="6" customWidth="1"/>
@@ -3134,22 +3230,22 @@
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B3" s="4" t="s">
-        <v>197</v>
+        <v>354</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.2">
       <c r="C4" t="s">
-        <v>67</v>
+        <v>335</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.2">
       <c r="D5" t="s">
-        <v>2</v>
+        <v>345</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.2">
       <c r="D6" t="s">
-        <v>126</v>
+        <v>336</v>
       </c>
       <c r="E6" s="1" t="s">
         <v>14</v>
@@ -3157,7 +3253,7 @@
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.2">
       <c r="D7" t="s">
-        <v>127</v>
+        <v>337</v>
       </c>
       <c r="E7" s="2" t="s">
         <v>15</v>
@@ -3165,324 +3261,142 @@
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.2">
       <c r="D8" t="s">
-        <v>128</v>
+        <v>338</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.2">
       <c r="D9" t="s">
-        <v>129</v>
+        <v>339</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.2">
       <c r="D10" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="D11" t="s">
-        <v>131</v>
+        <v>340</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="D13" t="s">
-        <v>6</v>
+      <c r="B13" s="4" t="s">
+        <v>355</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="D14" t="s">
-        <v>132</v>
+      <c r="C14" t="s">
+        <v>341</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.2">
       <c r="D15" t="s">
-        <v>133</v>
+        <v>344</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.2">
       <c r="D16" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="17" spans="3:5" x14ac:dyDescent="0.2">
+        <v>342</v>
+      </c>
+    </row>
+    <row r="17" spans="3:4" x14ac:dyDescent="0.2">
       <c r="D17" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="19" spans="3:5" x14ac:dyDescent="0.2">
-      <c r="D19" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="20" spans="3:5" x14ac:dyDescent="0.2">
+        <v>343</v>
+      </c>
+    </row>
+    <row r="18" spans="3:4" x14ac:dyDescent="0.2">
+      <c r="D18" t="s">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="20" spans="3:4" x14ac:dyDescent="0.2">
       <c r="D20" t="s">
-        <v>62</v>
-      </c>
-      <c r="E20" s="3" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="21" spans="3:5" x14ac:dyDescent="0.2">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="21" spans="3:4" x14ac:dyDescent="0.2">
       <c r="D21" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="22" spans="3:5" x14ac:dyDescent="0.2">
-      <c r="D22" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="23" spans="3:5" x14ac:dyDescent="0.2">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="23" spans="3:4" x14ac:dyDescent="0.2">
       <c r="D23" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="24" spans="3:5" x14ac:dyDescent="0.2">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="24" spans="3:4" x14ac:dyDescent="0.2">
       <c r="D24" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="27" spans="3:5" x14ac:dyDescent="0.2">
-      <c r="C27" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="28" spans="3:5" x14ac:dyDescent="0.2">
-      <c r="D28" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="29" spans="3:5" x14ac:dyDescent="0.2">
-      <c r="D29" t="s">
-        <v>137</v>
-      </c>
-      <c r="E29" s="2" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="31" spans="3:5" x14ac:dyDescent="0.2">
-      <c r="D31" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="32" spans="3:5" x14ac:dyDescent="0.2">
-      <c r="D32" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="34" spans="3:5" x14ac:dyDescent="0.2">
-      <c r="D34" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="35" spans="3:5" x14ac:dyDescent="0.2">
-      <c r="D35" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="38" spans="3:5" ht="16" x14ac:dyDescent="0.2">
-      <c r="C38" s="7" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="39" spans="3:5" x14ac:dyDescent="0.2">
-      <c r="D39" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="40" spans="3:5" x14ac:dyDescent="0.2">
-      <c r="D40" t="s">
-        <v>141</v>
-      </c>
-      <c r="E40" s="1" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="41" spans="3:5" x14ac:dyDescent="0.2">
-      <c r="D41" t="s">
-        <v>142</v>
-      </c>
-      <c r="E41" s="2" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="42" spans="3:5" x14ac:dyDescent="0.2">
-      <c r="D42" t="s">
-        <v>168</v>
-      </c>
-      <c r="E42" s="2" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="44" spans="3:5" x14ac:dyDescent="0.2">
-      <c r="D44" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="45" spans="3:5" x14ac:dyDescent="0.2">
-      <c r="D45" t="s">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="46" spans="3:5" x14ac:dyDescent="0.2">
-      <c r="D46" t="s">
-        <v>172</v>
-      </c>
-    </row>
-    <row r="47" spans="3:5" x14ac:dyDescent="0.2">
-      <c r="D47" t="s">
-        <v>173</v>
-      </c>
-    </row>
-    <row r="48" spans="3:5" x14ac:dyDescent="0.2">
-      <c r="D48" t="s">
-        <v>174</v>
-      </c>
-    </row>
-    <row r="50" spans="3:5" x14ac:dyDescent="0.2">
-      <c r="D50" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="51" spans="3:5" x14ac:dyDescent="0.2">
-      <c r="D51" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="52" spans="3:5" x14ac:dyDescent="0.2">
-      <c r="D52" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="55" spans="3:5" x14ac:dyDescent="0.2">
-      <c r="C55" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="56" spans="3:5" x14ac:dyDescent="0.2">
-      <c r="D56" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="57" spans="3:5" x14ac:dyDescent="0.2">
-      <c r="D57" t="s">
-        <v>144</v>
-      </c>
-      <c r="E57" s="1" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="58" spans="3:5" x14ac:dyDescent="0.2">
-      <c r="D58" t="s">
-        <v>175</v>
-      </c>
-    </row>
-    <row r="59" spans="3:5" x14ac:dyDescent="0.2">
-      <c r="D59" t="s">
-        <v>176</v>
-      </c>
-    </row>
-    <row r="61" spans="3:5" x14ac:dyDescent="0.2">
-      <c r="D61" t="s">
-        <v>145</v>
-      </c>
-      <c r="E61" s="2" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="62" spans="3:5" x14ac:dyDescent="0.2">
-      <c r="D62" t="s">
-        <v>146</v>
-      </c>
-      <c r="E62" s="1" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="63" spans="3:5" x14ac:dyDescent="0.2">
-      <c r="D63" t="s">
-        <v>147</v>
-      </c>
-      <c r="E63" s="2" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="65" spans="4:4" x14ac:dyDescent="0.2">
-      <c r="D65" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="66" spans="4:4" x14ac:dyDescent="0.2">
-      <c r="D66" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="67" spans="4:4" x14ac:dyDescent="0.2">
-      <c r="D67" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="68" spans="4:4" x14ac:dyDescent="0.2">
-      <c r="D68" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="69" spans="4:4" x14ac:dyDescent="0.2">
-      <c r="D69" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="70" spans="4:4" x14ac:dyDescent="0.2">
-      <c r="D70" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="72" spans="4:4" x14ac:dyDescent="0.2">
-      <c r="D72" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="73" spans="4:4" x14ac:dyDescent="0.2">
-      <c r="D73" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="74" spans="4:4" x14ac:dyDescent="0.2">
-      <c r="D74" t="s">
-        <v>177</v>
-      </c>
-    </row>
-    <row r="77" spans="4:4" x14ac:dyDescent="0.2">
-      <c r="D77" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="78" spans="4:4" x14ac:dyDescent="0.2">
-      <c r="D78" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="79" spans="4:4" x14ac:dyDescent="0.2">
-      <c r="D79" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="80" spans="4:4" x14ac:dyDescent="0.2">
-      <c r="D80" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="85" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B85" s="4" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="86" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="C86" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="87" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="D87" t="s">
-        <v>167</v>
+        <v>350</v>
+      </c>
+    </row>
+    <row r="25" spans="3:4" x14ac:dyDescent="0.2">
+      <c r="D25" t="s">
+        <v>351</v>
+      </c>
+    </row>
+    <row r="26" spans="3:4" x14ac:dyDescent="0.2">
+      <c r="D26" t="s">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="29" spans="3:4" x14ac:dyDescent="0.2">
+      <c r="C29" t="s">
+        <v>353</v>
+      </c>
+    </row>
+    <row r="32" spans="3:4" x14ac:dyDescent="0.2">
+      <c r="C32" t="s">
+        <v>356</v>
+      </c>
+    </row>
+    <row r="35" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B35" s="4" t="s">
+        <v>357</v>
+      </c>
+    </row>
+    <row r="36" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="C36" t="s">
+        <v>358</v>
+      </c>
+    </row>
+    <row r="38" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="C38" t="s">
+        <v>359</v>
+      </c>
+    </row>
+    <row r="41" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B41" s="4" t="s">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="42" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="C42" t="s">
+        <v>361</v>
+      </c>
+    </row>
+    <row r="44" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="C44" t="s">
+        <v>362</v>
+      </c>
+    </row>
+    <row r="46" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="C46" t="s">
+        <v>363</v>
+      </c>
+    </row>
+    <row r="48" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="C48" t="s">
+        <v>364</v>
+      </c>
+    </row>
+    <row r="50" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C50" t="s">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="52" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C52" t="s">
+        <v>366</v>
+      </c>
+    </row>
+    <row r="54" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C54" t="s">
+        <v>367</v>
       </c>
     </row>
   </sheetData>
@@ -3515,25 +3429,25 @@
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B3" s="4" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="F3" s="6"/>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.2">
       <c r="C4" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="F4" s="6"/>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.2">
       <c r="D5" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="F5" s="6"/>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.2">
       <c r="D6" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="E6" s="1" t="s">
         <v>14</v>
@@ -3542,7 +3456,7 @@
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.2">
       <c r="D7" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="E7" s="2" t="s">
         <v>15</v>
@@ -3551,25 +3465,25 @@
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.2">
       <c r="D8" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="F8" s="6"/>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.2">
       <c r="D9" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="F9" s="6"/>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.2">
       <c r="D10" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="F10" s="6"/>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.2">
       <c r="D11" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="F11" s="6"/>
     </row>
@@ -3578,25 +3492,25 @@
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.2">
       <c r="D13" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="F13" s="6"/>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.2">
       <c r="D14" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="F14" s="6"/>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.2">
       <c r="D15" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="F15" s="6"/>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.2">
       <c r="D16" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="F16" s="6"/>
     </row>
@@ -3605,31 +3519,31 @@
     </row>
     <row r="18" spans="3:6" x14ac:dyDescent="0.2">
       <c r="D18" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="F18" s="6"/>
     </row>
     <row r="19" spans="3:6" x14ac:dyDescent="0.2">
       <c r="D19" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="F19" s="6"/>
     </row>
     <row r="20" spans="3:6" x14ac:dyDescent="0.2">
       <c r="D20" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="F20" s="6"/>
     </row>
     <row r="21" spans="3:6" x14ac:dyDescent="0.2">
       <c r="D21" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="F21" s="6"/>
     </row>
     <row r="22" spans="3:6" x14ac:dyDescent="0.2">
       <c r="D22" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="F22" s="6"/>
     </row>
@@ -3641,7 +3555,7 @@
     </row>
     <row r="25" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C25" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="F25" s="6"/>
     </row>
@@ -3653,7 +3567,7 @@
     </row>
     <row r="27" spans="3:6" x14ac:dyDescent="0.2">
       <c r="D27" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="E27" s="2" t="s">
         <v>15</v>
@@ -3662,7 +3576,7 @@
     </row>
     <row r="28" spans="3:6" x14ac:dyDescent="0.2">
       <c r="D28" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="E28" s="2" t="s">
         <v>15</v>
@@ -3671,7 +3585,7 @@
     </row>
     <row r="29" spans="3:6" x14ac:dyDescent="0.2">
       <c r="D29" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="F29" s="6"/>
     </row>
@@ -3686,19 +3600,19 @@
     </row>
     <row r="32" spans="3:6" x14ac:dyDescent="0.2">
       <c r="D32" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="F32" s="6"/>
     </row>
     <row r="33" spans="4:6" x14ac:dyDescent="0.2">
       <c r="D33" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="F33" s="6"/>
     </row>
     <row r="34" spans="4:6" x14ac:dyDescent="0.2">
       <c r="D34" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="F34" s="6"/>
     </row>
@@ -3713,13 +3627,13 @@
     </row>
     <row r="37" spans="4:6" x14ac:dyDescent="0.2">
       <c r="D37" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="F37" s="6"/>
     </row>
     <row r="38" spans="4:6" x14ac:dyDescent="0.2">
       <c r="D38" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="F38" s="6"/>
     </row>
@@ -3732,7 +3646,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9D1D9DD3-45DB-954C-B749-4F3B65D055A7}">
   <dimension ref="A2:F90"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A27" zoomScale="109" workbookViewId="0">
+    <sheetView topLeftCell="A27" zoomScale="109" workbookViewId="0">
       <selection activeCell="E54" sqref="E54"/>
     </sheetView>
   </sheetViews>
@@ -3815,7 +3729,7 @@
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.2">
       <c r="D14" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="E14" s="2" t="s">
         <v>15</v>
@@ -3857,7 +3771,7 @@
     </row>
     <row r="22" spans="3:5" x14ac:dyDescent="0.2">
       <c r="D22" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="E22" s="1" t="s">
         <v>14</v>
@@ -4008,7 +3922,7 @@
     </row>
     <row r="54" spans="3:5" ht="32" x14ac:dyDescent="0.2">
       <c r="D54" s="7" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
     </row>
     <row r="56" spans="3:5" x14ac:dyDescent="0.2">
@@ -4034,12 +3948,12 @@
     </row>
     <row r="60" spans="3:5" x14ac:dyDescent="0.2">
       <c r="C60" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
     </row>
     <row r="61" spans="3:5" x14ac:dyDescent="0.2">
       <c r="D61" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="E61" s="1" t="s">
         <v>14</v>
@@ -4047,28 +3961,28 @@
     </row>
     <row r="64" spans="3:5" x14ac:dyDescent="0.2">
       <c r="C64" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
     </row>
     <row r="65" spans="3:5" x14ac:dyDescent="0.2">
       <c r="D65" t="s">
+        <v>243</v>
+      </c>
+      <c r="E65" s="8" t="s">
         <v>244</v>
-      </c>
-      <c r="E65" s="8" t="s">
-        <v>245</v>
       </c>
     </row>
     <row r="66" spans="3:5" x14ac:dyDescent="0.2">
       <c r="D66" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="E66" s="8" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
     </row>
     <row r="67" spans="3:5" x14ac:dyDescent="0.2">
       <c r="D67" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="E67" s="1" t="s">
         <v>14</v>
@@ -4076,63 +3990,63 @@
     </row>
     <row r="68" spans="3:5" x14ac:dyDescent="0.2">
       <c r="D68" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
     </row>
     <row r="69" spans="3:5" x14ac:dyDescent="0.2">
       <c r="D69" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
     </row>
     <row r="70" spans="3:5" x14ac:dyDescent="0.2">
       <c r="D70" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="E70" s="8" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
     </row>
     <row r="71" spans="3:5" x14ac:dyDescent="0.2">
       <c r="D71" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
     </row>
     <row r="72" spans="3:5" x14ac:dyDescent="0.2">
       <c r="D72" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
     </row>
     <row r="73" spans="3:5" x14ac:dyDescent="0.2">
       <c r="D73" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
     </row>
     <row r="74" spans="3:5" x14ac:dyDescent="0.2">
       <c r="D74" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="E74" s="8" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
     </row>
     <row r="75" spans="3:5" x14ac:dyDescent="0.2">
       <c r="D75" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
     </row>
     <row r="76" spans="3:5" ht="32" x14ac:dyDescent="0.2">
       <c r="D76" s="7" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
     </row>
     <row r="78" spans="3:5" x14ac:dyDescent="0.2">
       <c r="C78" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
     </row>
     <row r="79" spans="3:5" ht="16" x14ac:dyDescent="0.2">
       <c r="D79" s="7" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="E79" s="2" t="s">
         <v>15</v>
@@ -4140,7 +4054,7 @@
     </row>
     <row r="80" spans="3:5" x14ac:dyDescent="0.2">
       <c r="D80" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="E80" s="2" t="s">
         <v>15</v>
@@ -4148,12 +4062,12 @@
     </row>
     <row r="83" spans="3:5" x14ac:dyDescent="0.2">
       <c r="C83" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
     </row>
     <row r="84" spans="3:5" x14ac:dyDescent="0.2">
       <c r="D84" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="E84" s="2" t="s">
         <v>15</v>
@@ -4161,7 +4075,7 @@
     </row>
     <row r="85" spans="3:5" x14ac:dyDescent="0.2">
       <c r="D85" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="E85" s="2" t="s">
         <v>15</v>
@@ -4169,27 +4083,27 @@
     </row>
     <row r="86" spans="3:5" x14ac:dyDescent="0.2">
       <c r="D86" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
     </row>
     <row r="87" spans="3:5" x14ac:dyDescent="0.2">
       <c r="D87" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
     </row>
     <row r="88" spans="3:5" x14ac:dyDescent="0.2">
       <c r="D88" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
     </row>
     <row r="89" spans="3:5" x14ac:dyDescent="0.2">
       <c r="D89" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
     </row>
     <row r="90" spans="3:5" x14ac:dyDescent="0.2">
       <c r="D90" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
     </row>
   </sheetData>
@@ -4223,19 +4137,19 @@
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B3" s="4" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="F3" s="6"/>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.2">
       <c r="C4" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="F4" s="6"/>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.2">
       <c r="D5" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="E5" s="2" t="s">
         <v>15</v>
@@ -4244,7 +4158,7 @@
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.2">
       <c r="D6" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="E6" s="2" t="s">
         <v>15</v>
@@ -4253,13 +4167,13 @@
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.2">
       <c r="D7" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="F7" s="6"/>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.2">
       <c r="D8" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="F8" s="6"/>
     </row>
@@ -4268,7 +4182,7 @@
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.2">
       <c r="C10" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="F10" s="6"/>
     </row>
@@ -4280,7 +4194,7 @@
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.2">
       <c r="D12" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="F12" s="6"/>
     </row>
@@ -4295,13 +4209,13 @@
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.2">
       <c r="D15" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="F15" s="6"/>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.2">
       <c r="D16" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="F16" s="6"/>
     </row>
@@ -4316,7 +4230,7 @@
     </row>
     <row r="19" spans="3:6" x14ac:dyDescent="0.2">
       <c r="D19" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="F19" s="6"/>
     </row>
@@ -4328,7 +4242,7 @@
     </row>
     <row r="22" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C22" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="F22" s="6"/>
     </row>
@@ -4340,7 +4254,7 @@
     </row>
     <row r="24" spans="3:6" x14ac:dyDescent="0.2">
       <c r="D24" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="F24" s="6"/>
     </row>
@@ -4355,13 +4269,13 @@
     </row>
     <row r="27" spans="3:6" x14ac:dyDescent="0.2">
       <c r="D27" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="F27" s="6"/>
     </row>
     <row r="28" spans="3:6" x14ac:dyDescent="0.2">
       <c r="D28" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="F28" s="6"/>
     </row>
@@ -4376,7 +4290,7 @@
     </row>
     <row r="31" spans="3:6" x14ac:dyDescent="0.2">
       <c r="D31" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="F31" s="6"/>
     </row>
@@ -4388,7 +4302,7 @@
     </row>
     <row r="34" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C34" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="F34" s="6"/>
     </row>
@@ -4400,13 +4314,13 @@
     </row>
     <row r="36" spans="3:6" x14ac:dyDescent="0.2">
       <c r="D36" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="F36" s="6"/>
     </row>
     <row r="37" spans="3:6" x14ac:dyDescent="0.2">
       <c r="D37" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="F37" s="6"/>
     </row>
@@ -4421,13 +4335,13 @@
     </row>
     <row r="40" spans="3:6" x14ac:dyDescent="0.2">
       <c r="D40" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="F40" s="6"/>
     </row>
     <row r="41" spans="3:6" x14ac:dyDescent="0.2">
       <c r="D41" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="F41" s="6"/>
     </row>
@@ -4442,7 +4356,7 @@
     </row>
     <row r="44" spans="3:6" x14ac:dyDescent="0.2">
       <c r="D44" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="F44" s="6"/>
     </row>
@@ -4454,13 +4368,13 @@
     </row>
     <row r="47" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C47" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="F47" s="6"/>
     </row>
     <row r="48" spans="3:6" ht="16" x14ac:dyDescent="0.2">
       <c r="D48" s="7" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="E48" s="1" t="s">
         <v>14</v>
@@ -4469,7 +4383,7 @@
     </row>
     <row r="49" spans="4:6" ht="16" x14ac:dyDescent="0.2">
       <c r="D49" s="7" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="E49" s="2" t="s">
         <v>15</v>
@@ -4478,7 +4392,7 @@
     </row>
     <row r="50" spans="4:6" x14ac:dyDescent="0.2">
       <c r="D50" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="E50" s="2" t="s">
         <v>15</v>
@@ -4487,19 +4401,19 @@
     </row>
     <row r="51" spans="4:6" x14ac:dyDescent="0.2">
       <c r="D51" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="F51" s="6"/>
     </row>
     <row r="52" spans="4:6" x14ac:dyDescent="0.2">
       <c r="D52" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="F52" s="6"/>
     </row>
     <row r="53" spans="4:6" x14ac:dyDescent="0.2">
       <c r="D53" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="E53" s="2" t="s">
         <v>15</v>

--- a/study_notes_Pluralsight.xlsx
+++ b/study_notes_Pluralsight.xlsx
@@ -1,9 +1,9 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10611"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10713"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B1F9A73D-F621-394C-9E1F-1AEC81BACD71}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D09B7A47-E8A3-3F41-A8CB-2FD15F8756B3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="37500" yWindow="2600" windowWidth="25800" windowHeight="16840" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="584" uniqueCount="368">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="586" uniqueCount="368">
   <si>
     <t>Path:</t>
   </si>
@@ -3209,8 +3209,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{076B4C54-1F2D-3F42-8204-6CD64AE9583C}">
   <dimension ref="A2:F54"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A31" zoomScale="150" workbookViewId="0">
-      <selection activeCell="D54" sqref="D54"/>
+    <sheetView tabSelected="1" zoomScale="150" workbookViewId="0">
+      <selection activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -3255,18 +3255,24 @@
       <c r="D7" t="s">
         <v>337</v>
       </c>
-      <c r="E7" s="2" t="s">
-        <v>15</v>
+      <c r="E7" s="1" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.2">
       <c r="D8" t="s">
         <v>338</v>
       </c>
+      <c r="E8" s="2" t="s">
+        <v>15</v>
+      </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.2">
       <c r="D9" t="s">
         <v>339</v>
+      </c>
+      <c r="E9" s="2" t="s">
+        <v>15</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.2">
